--- a/capiq_data/in_process_data/IQ26893.xlsx
+++ b/capiq_data/in_process_data/IQ26893.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB418D0A-E6FC-496E-985F-69D994FF3792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963CD14-8A20-4638-AE2F-EB61AA13D44A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"705224cd-01cb-467f-b7cc-5e1638b57545"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"793668f0-c59d-4925-ac47-bed0ea75a171"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40510</v>
+        <v>36856</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>200.9</v>
+        <v>281.2</v>
       </c>
       <c r="D2">
-        <v>3147.5</v>
+        <v>7232</v>
       </c>
       <c r="E2">
-        <v>902.5</v>
+        <v>2320.8000000000002</v>
       </c>
       <c r="F2">
-        <v>760</v>
+        <v>1104</v>
       </c>
       <c r="G2">
-        <v>4193.8</v>
+        <v>8167.2</v>
       </c>
       <c r="H2">
-        <v>11603.5</v>
+        <v>17172.8</v>
       </c>
       <c r="I2">
-        <v>1122.8</v>
+        <v>2031.4</v>
       </c>
       <c r="J2">
-        <v>2879.9</v>
+        <v>4168.6000000000004</v>
       </c>
       <c r="K2">
-        <v>0.6</v>
+        <v>3783.1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2280</v>
+        <v>7726.1</v>
       </c>
       <c r="O2">
-        <v>6626.2</v>
+        <v>12701.1</v>
       </c>
       <c r="P2">
-        <v>3236.6</v>
+        <v>8016.8</v>
       </c>
       <c r="Q2">
-        <v>-295.7</v>
+        <v>0.7</v>
       </c>
       <c r="R2">
-        <v>40510</v>
+        <v>36856</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>4977.3</v>
+        <v>4471.7</v>
       </c>
       <c r="U2">
-        <v>545.20000000000005</v>
+        <v>82.7</v>
       </c>
       <c r="V2">
-        <v>210.3</v>
+        <v>28.2</v>
       </c>
       <c r="W2">
-        <v>-87.9</v>
+        <v>-94</v>
       </c>
       <c r="X2">
-        <v>-428</v>
+        <v>245.2</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,42 +931,42 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>200.9</v>
+        <v>281.2</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40601</v>
+        <v>36947</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>214.8</v>
+        <v>115.8</v>
       </c>
       <c r="D3">
-        <v>3141.3</v>
+        <v>6379.1</v>
       </c>
       <c r="E3">
-        <v>876.7</v>
+        <v>1986.2</v>
       </c>
       <c r="F3">
-        <v>797.3</v>
+        <v>922.1</v>
       </c>
       <c r="G3">
-        <v>4035.5</v>
+        <v>7667.4</v>
       </c>
       <c r="H3">
-        <v>11472.8</v>
+        <v>17074.7</v>
       </c>
       <c r="I3">
-        <v>1031.3</v>
+        <v>2136.8000000000002</v>
       </c>
       <c r="J3">
-        <v>2875.1</v>
+        <v>4161.3999999999996</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3176.1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,37 +975,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2303.4</v>
+        <v>7225.6</v>
       </c>
       <c r="O3">
-        <v>6822.7</v>
+        <v>12566</v>
       </c>
       <c r="P3">
-        <v>3234.5</v>
+        <v>7416.8</v>
       </c>
       <c r="Q3">
-        <v>337.7</v>
+        <v>-58.3</v>
       </c>
       <c r="R3">
-        <v>40601</v>
+        <v>36947</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4650.1000000000004</v>
+        <v>4508.7</v>
       </c>
       <c r="U3">
-        <v>882.9</v>
+        <v>24.4</v>
       </c>
       <c r="V3">
-        <v>620.79999999999995</v>
+        <v>798.4</v>
       </c>
       <c r="W3">
-        <v>-100.3</v>
+        <v>-117.1</v>
       </c>
       <c r="X3">
-        <v>-554.5</v>
+        <v>-703.4</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>214.8</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40692</v>
+        <v>37038</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>255.5</v>
+        <v>121.4</v>
       </c>
       <c r="D4">
-        <v>3210</v>
+        <v>6427.8</v>
       </c>
       <c r="E4">
-        <v>849.4</v>
+        <v>1605.4</v>
       </c>
       <c r="F4">
-        <v>705.8</v>
+        <v>899.1</v>
       </c>
       <c r="G4">
-        <v>3899.3</v>
+        <v>7362.6</v>
       </c>
       <c r="H4">
-        <v>11408.7</v>
+        <v>16480.8</v>
       </c>
       <c r="I4">
-        <v>1083.7</v>
+        <v>2289.8000000000002</v>
       </c>
       <c r="J4">
-        <v>2870.3</v>
+        <v>4109.5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2677.1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2125.6</v>
+        <v>6935.6</v>
       </c>
       <c r="O4">
-        <v>6732</v>
+        <v>11972.6</v>
       </c>
       <c r="P4">
-        <v>3245.6</v>
+        <v>6909.7</v>
       </c>
       <c r="Q4">
-        <v>89.5</v>
+        <v>173.7</v>
       </c>
       <c r="R4">
-        <v>40692</v>
+        <v>37038</v>
       </c>
       <c r="S4">
-        <v>23200</v>
+        <v>89000</v>
       </c>
       <c r="T4">
-        <v>4676.7</v>
+        <v>4508.2</v>
       </c>
       <c r="U4">
-        <v>972.4</v>
+        <v>198.1</v>
       </c>
       <c r="V4">
-        <v>412.4</v>
+        <v>1164</v>
       </c>
       <c r="W4">
-        <v>-97.8</v>
+        <v>-117.7</v>
       </c>
       <c r="X4">
-        <v>-233.2</v>
+        <v>-833.9</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,81 +1097,81 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>255.5</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40783</v>
+        <v>37129</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>93.8</v>
+        <v>188.4</v>
       </c>
       <c r="D5">
-        <v>3105.3</v>
+        <v>7607.8</v>
       </c>
       <c r="E5">
-        <v>922</v>
+        <v>2450.8000000000002</v>
       </c>
       <c r="F5">
-        <v>596</v>
+        <v>1063.8</v>
       </c>
       <c r="G5">
-        <v>4093.6</v>
+        <v>8040.6</v>
       </c>
       <c r="H5">
-        <v>11610.7</v>
+        <v>17063.8</v>
       </c>
       <c r="I5">
-        <v>1165.5</v>
+        <v>2156.4</v>
       </c>
       <c r="J5">
-        <v>2855.7</v>
+        <v>3934.3</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3550.6</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="N5">
-        <v>2334.1999999999998</v>
+        <v>7741</v>
       </c>
       <c r="O5">
-        <v>6853.7</v>
+        <v>12512.1</v>
       </c>
       <c r="P5">
-        <v>3295</v>
+        <v>7607.8</v>
       </c>
       <c r="Q5">
-        <v>122.8</v>
+        <v>-172.2</v>
       </c>
       <c r="R5">
-        <v>40783</v>
+        <v>37129</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4757</v>
+        <v>4551.7</v>
       </c>
       <c r="U5">
-        <v>1095.2</v>
+        <v>25.9</v>
       </c>
       <c r="V5">
-        <v>315.10000000000002</v>
+        <v>-776.1</v>
       </c>
       <c r="W5">
-        <v>-94.3</v>
+        <v>-121.5</v>
       </c>
       <c r="X5">
-        <v>-41.1</v>
+        <v>714.4</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>93.8</v>
+        <v>188.4</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40874</v>
+        <v>37220</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>180.2</v>
+        <v>231.6</v>
       </c>
       <c r="D6">
-        <v>3431.7</v>
+        <v>7363.6</v>
       </c>
       <c r="E6">
-        <v>972</v>
+        <v>2343</v>
       </c>
       <c r="F6">
-        <v>754</v>
+        <v>1115.7</v>
       </c>
       <c r="G6">
-        <v>4007.8</v>
+        <v>8088.6</v>
       </c>
       <c r="H6">
-        <v>11478.4</v>
+        <v>17062.5</v>
       </c>
       <c r="I6">
-        <v>1404.9</v>
+        <v>2184.6</v>
       </c>
       <c r="J6">
-        <v>2845.9</v>
+        <v>5954</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1483.4</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2343.1</v>
+        <v>5617.5</v>
       </c>
       <c r="O6">
-        <v>6761.1</v>
+        <v>12404.5</v>
       </c>
       <c r="P6">
-        <v>3033.6</v>
+        <v>7506.6</v>
       </c>
       <c r="Q6">
-        <v>-388.7</v>
+        <v>-0.2</v>
       </c>
       <c r="R6">
-        <v>40874</v>
+        <v>37220</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>4717.3</v>
+        <v>4658</v>
       </c>
       <c r="U6">
-        <v>706.5</v>
+        <v>25.7</v>
       </c>
       <c r="V6">
-        <v>174.8</v>
+        <v>364.1</v>
       </c>
       <c r="W6">
-        <v>-95.4</v>
+        <v>-114.4</v>
       </c>
       <c r="X6">
-        <v>-491.9</v>
+        <v>-224.6</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,42 +1263,42 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>180.2</v>
+        <v>231.6</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40965</v>
+        <v>37311</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>280.10000000000002</v>
+        <v>170.8</v>
       </c>
       <c r="D7">
-        <v>3396</v>
+        <v>6244.7</v>
       </c>
       <c r="E7">
-        <v>944.7</v>
+        <v>2043.7</v>
       </c>
       <c r="F7">
-        <v>786.6</v>
+        <v>970.7</v>
       </c>
       <c r="G7">
-        <v>3825.4</v>
+        <v>7501.9</v>
       </c>
       <c r="H7">
-        <v>11747.9</v>
+        <v>16547.7</v>
       </c>
       <c r="I7">
-        <v>1169.9000000000001</v>
+        <v>2358.8000000000002</v>
       </c>
       <c r="J7">
-        <v>2852.7</v>
+        <v>5783.7</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1048.4000000000001</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,37 +1307,37 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2175.4</v>
+        <v>5579.8</v>
       </c>
       <c r="O7">
-        <v>6597.9</v>
+        <v>12192.6</v>
       </c>
       <c r="P7">
-        <v>3020.3</v>
+        <v>7089</v>
       </c>
       <c r="Q7">
-        <v>-102.3</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>40965</v>
+        <v>37311</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5150</v>
+        <v>4355.1000000000004</v>
       </c>
       <c r="U7">
-        <v>604.20000000000005</v>
+        <v>30.7</v>
       </c>
       <c r="V7">
-        <v>289.5</v>
+        <v>1212.8</v>
       </c>
       <c r="W7">
-        <v>-99.1</v>
+        <v>-123.5</v>
       </c>
       <c r="X7">
-        <v>-8.3000000000000007</v>
+        <v>-972</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>280.10000000000002</v>
+        <v>170.8</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41056</v>
+        <v>37402</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-86.2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3434.9</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>924.8</v>
+        <v>1276.4000000000001</v>
       </c>
       <c r="F8">
-        <v>676.2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>3218.8</v>
+        <v>6433.9</v>
       </c>
       <c r="H8">
-        <v>11441.9</v>
+        <v>15570.9</v>
       </c>
       <c r="I8">
-        <v>1190.3</v>
+        <v>2103.9</v>
       </c>
       <c r="J8">
-        <v>2858.6</v>
+        <v>5725.8</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>30.9</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2225.1999999999998</v>
+        <v>4313.3999999999996</v>
       </c>
       <c r="O8">
-        <v>6905.9</v>
+        <v>11087.7</v>
       </c>
       <c r="P8">
-        <v>3090.6</v>
+        <v>5965.7</v>
       </c>
       <c r="Q8">
-        <v>-501.2</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>41056</v>
+        <v>37402</v>
       </c>
       <c r="S8">
-        <v>26100</v>
+        <v>89000</v>
       </c>
       <c r="T8">
-        <v>4536</v>
+        <v>4483.2</v>
       </c>
       <c r="U8">
-        <v>103</v>
+        <v>157.9</v>
       </c>
       <c r="V8">
-        <v>272.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-99.8</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-308.3</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,81 +1429,81 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>-86.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41147</v>
+        <v>37493</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>250.1</v>
+        <v>227.6</v>
       </c>
       <c r="D9">
-        <v>3302.3</v>
+        <v>5442</v>
       </c>
       <c r="E9">
-        <v>963.9</v>
+        <v>2025.7</v>
       </c>
       <c r="F9">
-        <v>868.6</v>
+        <v>841.1</v>
       </c>
       <c r="G9">
-        <v>3475.9</v>
+        <v>7439.4</v>
       </c>
       <c r="H9">
-        <v>11928.6</v>
+        <v>16469.2</v>
       </c>
       <c r="I9">
-        <v>1224.7</v>
+        <v>1608</v>
       </c>
       <c r="J9">
-        <v>2859.7</v>
+        <v>5833.8</v>
       </c>
       <c r="K9">
-        <v>272</v>
+        <v>1229.8</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-133.9</v>
       </c>
       <c r="M9">
-        <v>-16.899999999999999</v>
+        <v>-14.1</v>
       </c>
       <c r="N9">
-        <v>2594.3000000000002</v>
+        <v>4989.3999999999996</v>
       </c>
       <c r="O9">
-        <v>7248.7</v>
+        <v>11820.6</v>
       </c>
       <c r="P9">
-        <v>3313.2</v>
+        <v>7272.1</v>
       </c>
       <c r="Q9">
-        <v>13.5</v>
+        <v>-140.5</v>
       </c>
       <c r="R9">
-        <v>41147</v>
+        <v>37493</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4679.8999999999996</v>
+        <v>4648.6000000000004</v>
       </c>
       <c r="U9">
-        <v>116.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="V9">
-        <v>323.89999999999998</v>
+        <v>-1031.5999999999999</v>
       </c>
       <c r="W9">
-        <v>-97.9</v>
+        <v>-123.7</v>
       </c>
       <c r="X9">
-        <v>53.2</v>
+        <v>961.7</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>250.1</v>
+        <v>227.6</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41238</v>
+        <v>37584</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>211.6</v>
+        <v>235.8</v>
       </c>
       <c r="D10">
-        <v>3727.2</v>
+        <v>4450.8</v>
       </c>
       <c r="E10">
-        <v>1037.8</v>
+        <v>1782.7</v>
       </c>
       <c r="F10">
-        <v>861.6</v>
+        <v>921.4</v>
       </c>
       <c r="G10">
-        <v>4065</v>
+        <v>6725.1</v>
       </c>
       <c r="H10">
-        <v>12524.5</v>
+        <v>15908.4</v>
       </c>
       <c r="I10">
-        <v>1397.1</v>
+        <v>1781.1</v>
       </c>
       <c r="J10">
-        <v>3609.3</v>
+        <v>5337.6</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>607.79999999999995</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,81 +1556,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2388.3000000000002</v>
+        <v>4768.7</v>
       </c>
       <c r="O10">
-        <v>7792.4</v>
+        <v>11152.7</v>
       </c>
       <c r="P10">
-        <v>3777.4</v>
+        <v>6454</v>
       </c>
       <c r="Q10">
-        <v>360.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="R10">
-        <v>41238</v>
+        <v>37584</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>4732.1000000000004</v>
+        <v>4755.7</v>
       </c>
       <c r="U10">
-        <v>476.8</v>
+        <v>26.2</v>
       </c>
       <c r="V10">
-        <v>154.69999999999999</v>
+        <v>564</v>
       </c>
       <c r="W10">
-        <v>-97.4</v>
+        <v>-124</v>
       </c>
       <c r="X10">
-        <v>286.10000000000002</v>
+        <v>-1071.7</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>211.6</v>
+        <v>235.8</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41329</v>
+        <v>37675</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="D11">
-        <v>3833.8</v>
+        <v>3614.3</v>
       </c>
       <c r="E11">
-        <v>1219.3</v>
+        <v>1486.4</v>
       </c>
       <c r="F11">
-        <v>887.6</v>
+        <v>839.9</v>
       </c>
       <c r="G11">
-        <v>5146</v>
+        <v>6274.8</v>
       </c>
       <c r="H11">
-        <v>21107.5</v>
+        <v>15511.7</v>
       </c>
       <c r="I11">
-        <v>1501.7</v>
+        <v>1504.7</v>
       </c>
       <c r="J11">
-        <v>9845.2999999999993</v>
+        <v>5375.3</v>
       </c>
       <c r="K11">
-        <v>1.1000000000000001</v>
+        <v>182.7</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3422.5</v>
+        <v>4274.7</v>
       </c>
       <c r="O11">
-        <v>15951.8</v>
+        <v>10696.5</v>
       </c>
       <c r="P11">
-        <v>10675.7</v>
+        <v>6066.5</v>
       </c>
       <c r="Q11">
-        <v>247</v>
+        <v>51.8</v>
       </c>
       <c r="R11">
-        <v>41329</v>
+        <v>37675</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>5155.7</v>
+        <v>4815.2</v>
       </c>
       <c r="U11">
-        <v>723.8</v>
+        <v>78</v>
       </c>
       <c r="V11">
-        <v>303.10000000000002</v>
+        <v>629.70000000000005</v>
       </c>
       <c r="W11">
-        <v>-101.3</v>
+        <v>-130.80000000000001</v>
       </c>
       <c r="X11">
-        <v>4798.2</v>
+        <v>-531.9</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41420</v>
+        <v>37766</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>192.2</v>
+        <v>139.4</v>
       </c>
       <c r="D12">
-        <v>4563.3</v>
+        <v>3432</v>
       </c>
       <c r="E12">
-        <v>1279.4000000000001</v>
+        <v>800.9</v>
       </c>
       <c r="F12">
-        <v>961.1</v>
+        <v>782.1</v>
       </c>
       <c r="G12">
-        <v>4379.8</v>
+        <v>6109.1</v>
       </c>
       <c r="H12">
-        <v>20405.3</v>
+        <v>15118.7</v>
       </c>
       <c r="I12">
-        <v>1498.1</v>
+        <v>788.1</v>
       </c>
       <c r="J12">
-        <v>8886.9</v>
+        <v>5395.2</v>
       </c>
       <c r="K12">
-        <v>185</v>
+        <v>1.6</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,120 +1722,120 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3401.3</v>
+        <v>3846.5</v>
       </c>
       <c r="O12">
-        <v>15042.3</v>
+        <v>10299.1</v>
       </c>
       <c r="P12">
-        <v>9694.2999999999993</v>
+        <v>5905.5</v>
       </c>
       <c r="Q12">
-        <v>-539.9</v>
+        <v>610.1</v>
       </c>
       <c r="R12">
-        <v>41420</v>
+        <v>37766</v>
       </c>
       <c r="S12">
-        <v>34840</v>
+        <v>63000</v>
       </c>
       <c r="T12">
-        <v>5363</v>
+        <v>4819.6000000000004</v>
       </c>
       <c r="U12">
-        <v>183.9</v>
+        <v>688.1</v>
       </c>
       <c r="V12">
-        <v>630.5</v>
+        <v>513.4</v>
       </c>
       <c r="W12">
-        <v>-104.1</v>
+        <v>-130.69999999999999</v>
       </c>
       <c r="X12">
-        <v>-1004.5</v>
+        <v>-60.9</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>192.2</v>
+        <v>139.4</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41511</v>
+        <v>37857</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>144.30000000000001</v>
+        <v>157.9</v>
       </c>
       <c r="D13">
-        <v>3715.8</v>
+        <v>3229.4</v>
       </c>
       <c r="E13">
-        <v>1246.0999999999999</v>
+        <v>1571.3</v>
       </c>
       <c r="F13">
-        <v>792.1</v>
+        <v>684.2</v>
       </c>
       <c r="G13">
-        <v>4457.3999999999996</v>
+        <v>6573.7</v>
       </c>
       <c r="H13">
-        <v>20468.8</v>
+        <v>15539.2</v>
       </c>
       <c r="I13">
-        <v>1552</v>
+        <v>1616.2</v>
       </c>
       <c r="J13">
-        <v>8818.1</v>
+        <v>5284.3</v>
       </c>
       <c r="K13">
-        <v>282.2</v>
+        <v>161.9</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-2.2999999999999998</v>
+        <v>-0.7</v>
       </c>
       <c r="N13">
-        <v>3463.3</v>
+        <v>4368.8999999999996</v>
       </c>
       <c r="O13">
-        <v>14984.6</v>
+        <v>10620.6</v>
       </c>
       <c r="P13">
-        <v>9726.7000000000007</v>
+        <v>5966.6</v>
       </c>
       <c r="Q13">
-        <v>30.5</v>
+        <v>33.9</v>
       </c>
       <c r="R13">
-        <v>41511</v>
+        <v>37857</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>5484.2</v>
+        <v>4918.6000000000004</v>
       </c>
       <c r="U13">
-        <v>194.2</v>
+        <v>680.7</v>
       </c>
       <c r="V13">
-        <v>166.1</v>
+        <v>44</v>
       </c>
       <c r="W13">
-        <v>-104.8</v>
+        <v>-131.30000000000001</v>
       </c>
       <c r="X13">
-        <v>22.6</v>
+        <v>10.6</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>144.30000000000001</v>
+        <v>157.9</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41602</v>
+        <v>37948</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>248.7</v>
+        <v>268.8</v>
       </c>
       <c r="D14">
-        <v>4221.1000000000004</v>
+        <v>3804.8</v>
       </c>
       <c r="E14">
-        <v>1415.1</v>
+        <v>1149.5999999999999</v>
       </c>
       <c r="F14">
-        <v>959.8</v>
+        <v>899.8</v>
       </c>
       <c r="G14">
-        <v>4755.6000000000004</v>
+        <v>5772.4</v>
       </c>
       <c r="H14">
-        <v>20786.400000000001</v>
+        <v>14532.7</v>
       </c>
       <c r="I14">
-        <v>1783.7</v>
+        <v>1220.9000000000001</v>
       </c>
       <c r="J14">
-        <v>8771.1</v>
+        <v>4965.8999999999996</v>
       </c>
       <c r="K14">
-        <v>233.7</v>
+        <v>106.3</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3729.5</v>
+        <v>3532.2</v>
       </c>
       <c r="O14">
-        <v>15190.6</v>
+        <v>9459.4</v>
       </c>
       <c r="P14">
-        <v>9636.1</v>
+        <v>5396.3</v>
       </c>
       <c r="Q14">
-        <v>-13.3</v>
+        <v>-670.1</v>
       </c>
       <c r="R14">
-        <v>41602</v>
+        <v>37948</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5595.8</v>
+        <v>5073.3</v>
       </c>
       <c r="U14">
-        <v>192.7</v>
+        <v>26.7</v>
       </c>
       <c r="V14">
-        <v>416.6</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="W14">
-        <v>-105.6</v>
+        <v>-130.80000000000001</v>
       </c>
       <c r="X14">
-        <v>-263.89999999999998</v>
+        <v>-671.4</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,42 +1927,42 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>248.7</v>
+        <v>268.8</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41693</v>
+        <v>38039</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>234.3</v>
+        <v>177.2</v>
       </c>
       <c r="D15">
-        <v>3947.3</v>
+        <v>3525.5</v>
       </c>
       <c r="E15">
-        <v>1275.5999999999999</v>
+        <v>1238.4000000000001</v>
       </c>
       <c r="F15">
-        <v>923.1</v>
+        <v>800.2</v>
       </c>
       <c r="G15">
-        <v>4520.6000000000004</v>
+        <v>5482.9</v>
       </c>
       <c r="H15">
-        <v>20433.3</v>
+        <v>14475.7</v>
       </c>
       <c r="I15">
-        <v>1486</v>
+        <v>857.5</v>
       </c>
       <c r="J15">
-        <v>8760.7000000000007</v>
+        <v>5312.2</v>
       </c>
       <c r="K15">
-        <v>145.6</v>
+        <v>42.6</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,37 +1971,37 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3240.5</v>
+        <v>3183.6</v>
       </c>
       <c r="O15">
-        <v>14683</v>
+        <v>9599.5</v>
       </c>
       <c r="P15">
-        <v>9491.4</v>
+        <v>5727.9</v>
       </c>
       <c r="Q15">
-        <v>37.4</v>
+        <v>548.6</v>
       </c>
       <c r="R15">
-        <v>41693</v>
+        <v>38039</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>5750.3</v>
+        <v>4876.2</v>
       </c>
       <c r="U15">
-        <v>239.2</v>
+        <v>533.70000000000005</v>
       </c>
       <c r="V15">
-        <v>385.3</v>
+        <v>135.9</v>
       </c>
       <c r="W15">
-        <v>-105.1</v>
+        <v>-137.9</v>
       </c>
       <c r="X15">
-        <v>-197.3</v>
+        <v>-394.2</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>234.3</v>
+        <v>215.3</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41784</v>
+        <v>38137</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-324.2</v>
+        <v>169.1</v>
       </c>
       <c r="D16">
-        <v>3959.4</v>
+        <v>3522.1</v>
       </c>
       <c r="E16">
-        <v>1058.4000000000001</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="F16">
-        <v>836.9</v>
+        <v>868.9</v>
       </c>
       <c r="G16">
-        <v>4230.8</v>
+        <v>5149.3</v>
       </c>
       <c r="H16">
-        <v>19319.5</v>
+        <v>14222.2</v>
       </c>
       <c r="I16">
-        <v>1349.3</v>
+        <v>925.4</v>
       </c>
       <c r="J16">
-        <v>8720.5</v>
+        <v>5280.7</v>
       </c>
       <c r="K16">
-        <v>141.80000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2642.4</v>
+        <v>3004.5</v>
       </c>
       <c r="O16">
-        <v>13964.3</v>
+        <v>9428.2999999999993</v>
       </c>
       <c r="P16">
-        <v>8946.4</v>
+        <v>5693.7</v>
       </c>
       <c r="Q16">
-        <v>-64.2</v>
+        <v>8.1</v>
       </c>
       <c r="R16">
-        <v>41784</v>
+        <v>38137</v>
       </c>
       <c r="S16">
-        <v>32800</v>
+        <v>39000</v>
       </c>
       <c r="T16">
-        <v>5355.2</v>
+        <v>4793.8999999999996</v>
       </c>
       <c r="U16">
-        <v>141.30000000000001</v>
+        <v>608.6</v>
       </c>
       <c r="V16">
-        <v>600.6</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="W16">
-        <v>-105.4</v>
+        <v>-136.69999999999999</v>
       </c>
       <c r="X16">
-        <v>-595.5</v>
+        <v>-302.5</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,125 +2093,125 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>-324.2</v>
+        <v>169.1</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41875</v>
+        <v>38228</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>482.3</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="D17">
-        <v>2763</v>
+        <v>3383.2</v>
       </c>
       <c r="E17">
-        <v>1080.4000000000001</v>
+        <v>1349.7</v>
       </c>
       <c r="F17">
-        <v>590.79999999999995</v>
+        <v>682.8</v>
       </c>
       <c r="G17">
-        <v>3691.4</v>
+        <v>4907.8</v>
       </c>
       <c r="H17">
-        <v>19373.099999999999</v>
+        <v>14013.9</v>
       </c>
       <c r="I17">
-        <v>1441.8</v>
+        <v>873.5</v>
       </c>
       <c r="J17">
-        <v>7916.8</v>
+        <v>5287.4</v>
       </c>
       <c r="K17">
-        <v>565.20000000000005</v>
+        <v>22.4</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="M17">
-        <v>-1486.7</v>
+        <v>-17.8</v>
       </c>
       <c r="N17">
-        <v>2900.1</v>
+        <v>2957.1</v>
       </c>
       <c r="O17">
-        <v>13595.9</v>
+        <v>9399.2999999999993</v>
       </c>
       <c r="P17">
-        <v>8568.2000000000007</v>
+        <v>5676.7</v>
       </c>
       <c r="Q17">
-        <v>-6.4</v>
+        <v>-238.8</v>
       </c>
       <c r="R17">
-        <v>41875</v>
+        <v>38228</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>5777.2</v>
+        <v>4614.6000000000004</v>
       </c>
       <c r="U17">
-        <v>133.69999999999999</v>
+        <v>369.8</v>
       </c>
       <c r="V17">
-        <v>233.6</v>
+        <v>155.9</v>
       </c>
       <c r="W17">
-        <v>-105.5</v>
+        <v>-135.5</v>
       </c>
       <c r="X17">
-        <v>-613.70000000000005</v>
+        <v>-329.3</v>
       </c>
       <c r="Y17">
-        <v>68.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>402.9</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>482.3</v>
+        <v>134.69999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41966</v>
+        <v>38319</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>239.6</v>
       </c>
       <c r="D18">
-        <v>3141.2</v>
+        <v>2365.6</v>
       </c>
       <c r="E18">
-        <v>1201.0999999999999</v>
+        <v>1536.6</v>
       </c>
       <c r="F18">
-        <v>758.2</v>
+        <v>750.6</v>
       </c>
       <c r="G18">
-        <v>4116.1000000000004</v>
+        <v>5493</v>
       </c>
       <c r="H18">
-        <v>19501.7</v>
+        <v>14205.8</v>
       </c>
       <c r="I18">
-        <v>1643.4</v>
+        <v>1161.0999999999999</v>
       </c>
       <c r="J18">
-        <v>7669</v>
+        <v>4589.3</v>
       </c>
       <c r="K18">
-        <v>550.70000000000005</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3405.3</v>
+        <v>3663.6</v>
       </c>
       <c r="O18">
-        <v>13812.6</v>
+        <v>9393.6</v>
       </c>
       <c r="P18">
-        <v>8478.6</v>
+        <v>5360.1</v>
       </c>
       <c r="Q18">
-        <v>-11.9</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="R18">
-        <v>41966</v>
+        <v>38319</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>5689.1</v>
+        <v>4812.2</v>
       </c>
       <c r="U18">
-        <v>121.9</v>
+        <v>353.2</v>
       </c>
       <c r="V18">
-        <v>184.1</v>
+        <v>305.89999999999998</v>
       </c>
       <c r="W18">
-        <v>-106.2</v>
+        <v>-133.80000000000001</v>
       </c>
       <c r="X18">
-        <v>-96.3</v>
+        <v>-439.4</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-11.5</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>239.7</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42057</v>
+        <v>38410</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-954.1</v>
+        <v>165.4</v>
       </c>
       <c r="D19">
-        <v>2907.3</v>
+        <v>2756.3</v>
       </c>
       <c r="E19">
-        <v>1050.7</v>
+        <v>1400</v>
       </c>
       <c r="F19">
-        <v>720</v>
+        <v>710.2</v>
       </c>
       <c r="G19">
-        <v>3923.3</v>
+        <v>4944.6000000000004</v>
       </c>
       <c r="H19">
-        <v>17868.900000000001</v>
+        <v>13321.3</v>
       </c>
       <c r="I19">
-        <v>1334.4</v>
+        <v>977.4</v>
       </c>
       <c r="J19">
-        <v>6919.3</v>
+        <v>4353.3999999999996</v>
       </c>
       <c r="K19">
-        <v>442</v>
+        <v>57.7</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,37 +2303,37 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3716.9</v>
+        <v>2924.1</v>
       </c>
       <c r="O19">
-        <v>13299.8</v>
+        <v>8429.7999999999993</v>
       </c>
       <c r="P19">
-        <v>8370.2000000000007</v>
+        <v>4526.7</v>
       </c>
       <c r="Q19">
-        <v>9.9</v>
+        <v>-344.6</v>
       </c>
       <c r="R19">
-        <v>42057</v>
+        <v>38410</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4569.1000000000004</v>
+        <v>4891.5</v>
       </c>
       <c r="U19">
-        <v>137.30000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="V19">
-        <v>322.8</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="W19">
-        <v>-106.5</v>
+        <v>-140.1</v>
       </c>
       <c r="X19">
-        <v>-200.8</v>
+        <v>-862.1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-954.1</v>
+        <v>165.3</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38501</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>209.2</v>
+        <v>101.8</v>
       </c>
       <c r="D20">
-        <v>3125.5</v>
+        <v>2998.6</v>
       </c>
       <c r="E20">
-        <v>739</v>
+        <v>1260.8</v>
       </c>
       <c r="F20">
-        <v>829.2</v>
+        <v>701.8</v>
       </c>
       <c r="G20">
-        <v>3563.3</v>
+        <v>4774.8</v>
       </c>
       <c r="H20">
-        <v>17437.8</v>
+        <v>13042.8</v>
       </c>
       <c r="I20">
-        <v>1080</v>
+        <v>781.6</v>
       </c>
       <c r="J20">
-        <v>6888.8</v>
+        <v>4349.1000000000004</v>
       </c>
       <c r="K20">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,164 +2386,164 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3310.1</v>
+        <v>2639.7</v>
       </c>
       <c r="O20">
-        <v>12827.8</v>
+        <v>8183.4</v>
       </c>
       <c r="P20">
-        <v>7904.5</v>
+        <v>4474.8999999999996</v>
       </c>
       <c r="Q20">
-        <v>54.9</v>
+        <v>199</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38501</v>
       </c>
       <c r="S20">
-        <v>32900</v>
+        <v>38000</v>
       </c>
       <c r="T20">
-        <v>4610</v>
+        <v>4859.3999999999996</v>
       </c>
       <c r="U20">
-        <v>164.7</v>
+        <v>207.6</v>
       </c>
       <c r="V20">
-        <v>740.1</v>
+        <v>505.4</v>
       </c>
       <c r="W20">
-        <v>-107</v>
+        <v>-140.9</v>
       </c>
       <c r="X20">
-        <v>-519.4</v>
+        <v>-179.9</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>229.5</v>
       </c>
       <c r="AA20">
-        <v>209.2</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42246</v>
+        <v>38592</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-1154.0999999999999</v>
+        <v>347.3</v>
       </c>
       <c r="D21">
-        <v>2053</v>
+        <v>2673.8</v>
       </c>
       <c r="E21">
-        <v>837.3</v>
+        <v>1286.8</v>
       </c>
       <c r="F21">
-        <v>561.29999999999995</v>
+        <v>670.7</v>
       </c>
       <c r="G21">
-        <v>3702</v>
+        <v>5289.9</v>
       </c>
       <c r="H21">
-        <v>15834.3</v>
+        <v>13182.5</v>
       </c>
       <c r="I21">
-        <v>1157.7</v>
+        <v>926.9</v>
       </c>
       <c r="J21">
-        <v>6299.6</v>
+        <v>4343.5</v>
       </c>
       <c r="K21">
-        <v>13.1</v>
+        <v>10.8</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-2.5</v>
+        <v>-8.9</v>
       </c>
       <c r="N21">
-        <v>3846.9</v>
+        <v>2725.6</v>
       </c>
       <c r="O21">
-        <v>12358.6</v>
+        <v>8191</v>
       </c>
       <c r="P21">
-        <v>7870</v>
+        <v>4473.3999999999996</v>
       </c>
       <c r="Q21">
-        <v>-50.4</v>
+        <v>293.8</v>
       </c>
       <c r="R21">
-        <v>42246</v>
+        <v>38592</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3475.7</v>
+        <v>4991.5</v>
       </c>
       <c r="U21">
-        <v>114.3</v>
+        <v>501.4</v>
       </c>
       <c r="V21">
-        <v>93.1</v>
+        <v>2.6</v>
       </c>
       <c r="W21">
-        <v>-107.1</v>
+        <v>-141</v>
       </c>
       <c r="X21">
-        <v>-12.2</v>
+        <v>-140.6</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>482.4</v>
       </c>
       <c r="AA21">
-        <v>-1154.0999999999999</v>
+        <v>347.3</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42337</v>
+        <v>38683</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>154.9</v>
+        <v>152.5</v>
       </c>
       <c r="D22">
-        <v>2358.8000000000002</v>
+        <v>3002</v>
       </c>
       <c r="E22">
-        <v>894.4</v>
+        <v>1362.5</v>
       </c>
       <c r="F22">
-        <v>668</v>
+        <v>731.4</v>
       </c>
       <c r="G22">
-        <v>3912.5</v>
+        <v>5461.1</v>
       </c>
       <c r="H22">
-        <v>15994.6</v>
+        <v>13308.7</v>
       </c>
       <c r="I22">
-        <v>1195.5</v>
+        <v>1012.8</v>
       </c>
       <c r="J22">
-        <v>6400.4</v>
+        <v>3436.8</v>
       </c>
       <c r="K22">
-        <v>195</v>
+        <v>10.7</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3953.6</v>
+        <v>3697.6</v>
       </c>
       <c r="O22">
-        <v>12446.2</v>
+        <v>8267.2000000000007</v>
       </c>
       <c r="P22">
-        <v>7905.2</v>
+        <v>4367.8999999999996</v>
       </c>
       <c r="Q22">
-        <v>-11.7</v>
+        <v>186</v>
       </c>
       <c r="R22">
-        <v>42337</v>
+        <v>38683</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>3548.4</v>
+        <v>5041.5</v>
       </c>
       <c r="U22">
-        <v>95.9</v>
+        <v>687.4</v>
       </c>
       <c r="V22">
-        <v>259</v>
+        <v>463</v>
       </c>
       <c r="W22">
-        <v>-107.9</v>
+        <v>-141.30000000000001</v>
       </c>
       <c r="X22">
-        <v>-154.6</v>
+        <v>-238.9</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-482.4</v>
       </c>
       <c r="AA22">
-        <v>154.9</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42428</v>
+        <v>38774</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>204.6</v>
+        <v>-25.2</v>
       </c>
       <c r="D23">
-        <v>2199.3000000000002</v>
+        <v>2861.8</v>
       </c>
       <c r="E23">
-        <v>849.6</v>
+        <v>1159.4000000000001</v>
       </c>
       <c r="F23">
-        <v>619.79999999999995</v>
+        <v>724.4</v>
       </c>
       <c r="G23">
-        <v>3527.5</v>
+        <v>4770.8</v>
       </c>
       <c r="H23">
-        <v>13187.2</v>
+        <v>12383</v>
       </c>
       <c r="I23">
-        <v>1007.8</v>
+        <v>891.8</v>
       </c>
       <c r="J23">
-        <v>4902.7</v>
+        <v>3410.9</v>
       </c>
       <c r="K23">
-        <v>36.6</v>
+        <v>11.1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,37 +2635,37 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2615.6</v>
+        <v>2951.1</v>
       </c>
       <c r="O23">
-        <v>9424.1</v>
+        <v>7497.5</v>
       </c>
       <c r="P23">
-        <v>5499.7</v>
+        <v>3842.1</v>
       </c>
       <c r="Q23">
-        <v>394</v>
+        <v>-450.2</v>
       </c>
       <c r="R23">
-        <v>42428</v>
+        <v>38774</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3763.1</v>
+        <v>4885.5</v>
       </c>
       <c r="U23">
-        <v>502.6</v>
+        <v>237.2</v>
       </c>
       <c r="V23">
-        <v>386.5</v>
+        <v>257.3</v>
       </c>
       <c r="W23">
-        <v>-108.5</v>
+        <v>-141.5</v>
       </c>
       <c r="X23">
-        <v>-2506.1999999999998</v>
+        <v>-668.9</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>204.6</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42519</v>
+        <v>38865</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>117.6</v>
+        <v>59.2</v>
       </c>
       <c r="D24">
-        <v>2053</v>
+        <v>2944.4</v>
       </c>
       <c r="E24">
-        <v>650.1</v>
+        <v>1178.0999999999999</v>
       </c>
       <c r="F24">
-        <v>629.1</v>
+        <v>717.2</v>
       </c>
       <c r="G24">
-        <v>3576.7</v>
+        <v>4790.3</v>
       </c>
       <c r="H24">
-        <v>13390.6</v>
+        <v>11970.4</v>
       </c>
       <c r="I24">
-        <v>706.7</v>
+        <v>867.6</v>
       </c>
       <c r="J24">
-        <v>4881.3999999999996</v>
+        <v>3154.8</v>
       </c>
       <c r="K24">
-        <v>13.9</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2532.4</v>
+        <v>2964.8</v>
       </c>
       <c r="O24">
-        <v>9595.7999999999993</v>
+        <v>7320.4</v>
       </c>
       <c r="P24">
-        <v>5454.7</v>
+        <v>3585.9</v>
       </c>
       <c r="Q24">
-        <v>332.1</v>
+        <v>94.4</v>
       </c>
       <c r="R24">
-        <v>42519</v>
+        <v>38865</v>
       </c>
       <c r="S24">
-        <v>20900</v>
+        <v>33000</v>
       </c>
       <c r="T24">
-        <v>3794.8</v>
+        <v>4650</v>
       </c>
       <c r="U24">
-        <v>798.1</v>
+        <v>331.6</v>
       </c>
       <c r="V24">
-        <v>520.6</v>
+        <v>344.4</v>
       </c>
       <c r="W24">
-        <v>-109</v>
+        <v>-141.5</v>
       </c>
       <c r="X24">
-        <v>-60.2</v>
+        <v>-591.70000000000005</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,125 +2757,125 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>117.6</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42610</v>
+        <v>38956</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>186.2</v>
+        <v>166.7</v>
       </c>
       <c r="D25">
-        <v>1895.6</v>
+        <v>2688.6</v>
       </c>
       <c r="E25">
-        <v>847</v>
+        <v>1156.0999999999999</v>
       </c>
       <c r="F25">
-        <v>549.79999999999995</v>
+        <v>663</v>
       </c>
       <c r="G25">
-        <v>3407.1</v>
+        <v>4944.5</v>
       </c>
       <c r="H25">
-        <v>12835.9</v>
+        <v>11993.1</v>
       </c>
       <c r="I25">
-        <v>992.9</v>
+        <v>892.2</v>
       </c>
       <c r="J25">
-        <v>4451.3999999999996</v>
+        <v>3152</v>
       </c>
       <c r="K25">
-        <v>35.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L25">
-        <v>-3.3</v>
+        <v>-1.8</v>
       </c>
       <c r="M25">
-        <v>-553.9</v>
+        <v>-3.7</v>
       </c>
       <c r="N25">
-        <v>2364.8000000000002</v>
+        <v>2944</v>
       </c>
       <c r="O25">
-        <v>9003.1</v>
+        <v>7286.6</v>
       </c>
       <c r="P25">
-        <v>4974.1000000000004</v>
+        <v>3582</v>
       </c>
       <c r="Q25">
-        <v>-75.900000000000006</v>
+        <v>363.7</v>
       </c>
       <c r="R25">
-        <v>42610</v>
+        <v>38956</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3832.8</v>
+        <v>4706.5</v>
       </c>
       <c r="U25">
-        <v>794.6</v>
+        <v>695.3</v>
       </c>
       <c r="V25">
-        <v>325.89999999999998</v>
+        <v>381</v>
       </c>
       <c r="W25">
-        <v>-109.5</v>
+        <v>-93.3</v>
       </c>
       <c r="X25">
-        <v>-737.7</v>
+        <v>-133.4</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AA25">
-        <v>186.2</v>
+        <v>166.7</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42701</v>
+        <v>39047</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>122.1</v>
+        <v>213.3</v>
       </c>
       <c r="D26">
-        <v>2088.4</v>
+        <v>3088.7</v>
       </c>
       <c r="E26">
-        <v>699.5</v>
+        <v>1115.5</v>
       </c>
       <c r="F26">
-        <v>649.29999999999995</v>
+        <v>828.3</v>
       </c>
       <c r="G26">
-        <v>3345</v>
+        <v>5720</v>
       </c>
       <c r="H26">
-        <v>11425</v>
+        <v>12356.5</v>
       </c>
       <c r="I26">
-        <v>784.1</v>
+        <v>992.7</v>
       </c>
       <c r="J26">
-        <v>3214.3</v>
+        <v>3531.7</v>
       </c>
       <c r="K26">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1745.4</v>
+        <v>2957.2</v>
       </c>
       <c r="O26">
-        <v>6898.2</v>
+        <v>7618.9</v>
       </c>
       <c r="P26">
-        <v>3452</v>
+        <v>3558.1</v>
       </c>
       <c r="Q26">
-        <v>720.3</v>
+        <v>108.2</v>
       </c>
       <c r="R26">
-        <v>42701</v>
+        <v>39047</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>4526.8</v>
+        <v>4737.6000000000004</v>
       </c>
       <c r="U26">
-        <v>1442.5</v>
+        <v>803.5</v>
       </c>
       <c r="V26">
-        <v>216.3</v>
+        <v>-360.1</v>
       </c>
       <c r="W26">
-        <v>-109.9</v>
+        <v>-91.9</v>
       </c>
       <c r="X26">
-        <v>656.8</v>
+        <v>-236.1</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="AA26">
-        <v>122.1</v>
+        <v>213.3</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42792</v>
+        <v>39138</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>179.7</v>
+        <v>192.6</v>
       </c>
       <c r="D27">
-        <v>1981.2</v>
+        <v>2918.4</v>
       </c>
       <c r="E27">
-        <v>601.4</v>
+        <v>1194.4000000000001</v>
       </c>
       <c r="F27">
-        <v>621</v>
+        <v>775</v>
       </c>
       <c r="G27">
-        <v>2539.1</v>
+        <v>5584.4</v>
       </c>
       <c r="H27">
-        <v>10499</v>
+        <v>12280.6</v>
       </c>
       <c r="I27">
-        <v>690.1</v>
+        <v>935.5</v>
       </c>
       <c r="J27">
-        <v>2841.7</v>
+        <v>3435.8</v>
       </c>
       <c r="K27">
-        <v>3.7</v>
+        <v>22.7</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1564.9</v>
+        <v>3104.6</v>
       </c>
       <c r="O27">
-        <v>6194.8</v>
+        <v>7614.7</v>
       </c>
       <c r="P27">
-        <v>2974.2</v>
+        <v>3479.5</v>
       </c>
       <c r="Q27">
-        <v>-758.9</v>
+        <v>-306.5</v>
       </c>
       <c r="R27">
-        <v>42792</v>
+        <v>39138</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4304.2</v>
+        <v>4665.8999999999996</v>
       </c>
       <c r="U27">
-        <v>683.6</v>
+        <v>497</v>
       </c>
       <c r="V27">
-        <v>304.3</v>
+        <v>201.1</v>
       </c>
       <c r="W27">
-        <v>-109.5</v>
+        <v>-91.4</v>
       </c>
       <c r="X27">
-        <v>-1026.0999999999999</v>
+        <v>-374.4</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AA27">
-        <v>179.7</v>
+        <v>192.6</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42883</v>
+        <v>39229</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>151.30000000000001</v>
+        <v>192</v>
       </c>
       <c r="D28">
-        <v>1861.7</v>
+        <v>1836</v>
       </c>
       <c r="E28">
-        <v>563.4</v>
+        <v>819</v>
       </c>
       <c r="F28">
-        <v>546.20000000000005</v>
+        <v>490.7</v>
       </c>
       <c r="G28">
-        <v>2013.2</v>
+        <v>5006</v>
       </c>
       <c r="H28">
-        <v>10096.299999999999</v>
+        <v>11835.5</v>
       </c>
       <c r="I28">
-        <v>773.1</v>
+        <v>746.5</v>
       </c>
       <c r="J28">
-        <v>2769.2</v>
+        <v>3418.6</v>
       </c>
       <c r="K28">
-        <v>28.2</v>
+        <v>21.3</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,164 +3050,164 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1720.5</v>
+        <v>2680.9</v>
       </c>
       <c r="O28">
-        <v>6018.5</v>
+        <v>7252.6</v>
       </c>
       <c r="P28">
-        <v>2996.4</v>
+        <v>3457.8</v>
       </c>
       <c r="Q28">
-        <v>-432.2</v>
+        <v>238.2</v>
       </c>
       <c r="R28">
-        <v>42883</v>
+        <v>39229</v>
       </c>
       <c r="S28">
-        <v>12600</v>
+        <v>24500</v>
       </c>
       <c r="T28">
-        <v>4077.8</v>
+        <v>4582.8999999999996</v>
       </c>
       <c r="U28">
-        <v>251.4</v>
+        <v>730.8</v>
       </c>
       <c r="V28">
-        <v>329</v>
+        <v>721.4</v>
       </c>
       <c r="W28">
-        <v>-86.1</v>
+        <v>-90.1</v>
       </c>
       <c r="X28">
-        <v>-462.1</v>
+        <v>-318.8</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AA28">
-        <v>151.30000000000001</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42974</v>
+        <v>39320</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>152.5</v>
+        <v>175.4</v>
       </c>
       <c r="D29">
-        <v>1804.2</v>
+        <v>2621.1</v>
       </c>
       <c r="E29">
-        <v>577.1</v>
+        <v>1301.0999999999999</v>
       </c>
       <c r="F29">
-        <v>519</v>
+        <v>618.79999999999995</v>
       </c>
       <c r="G29">
-        <v>2125</v>
+        <v>5018.7</v>
       </c>
       <c r="H29">
-        <v>10225.6</v>
+        <v>11954.8</v>
       </c>
       <c r="I29">
-        <v>845.7</v>
+        <v>1239.2</v>
       </c>
       <c r="J29">
-        <v>2647.2</v>
+        <v>3420.1</v>
       </c>
       <c r="K29">
-        <v>323.5</v>
+        <v>124.8</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-3.6</v>
       </c>
       <c r="N29">
-        <v>2053.6</v>
+        <v>2727.5</v>
       </c>
       <c r="O29">
-        <v>6343</v>
+        <v>7359.2</v>
       </c>
       <c r="P29">
-        <v>3289.2</v>
+        <v>3562.6</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-423.3</v>
       </c>
       <c r="R29">
-        <v>42974</v>
+        <v>39320</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3882.6</v>
+        <v>4595.6000000000004</v>
       </c>
       <c r="U29">
-        <v>251.4</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="V29">
-        <v>136</v>
+        <v>-170</v>
       </c>
       <c r="W29">
-        <v>-83.3</v>
+        <v>-88.6</v>
       </c>
       <c r="X29">
-        <v>-107.1</v>
+        <v>-67</v>
       </c>
       <c r="Y29">
-        <v>119.8</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>152.5</v>
+        <v>175.4</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43065</v>
+        <v>39411</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>223.5</v>
+        <v>244.8</v>
       </c>
       <c r="D30">
-        <v>2173.4</v>
+        <v>2951.2</v>
       </c>
       <c r="E30">
-        <v>683.8</v>
+        <v>1489.5</v>
       </c>
       <c r="F30">
-        <v>658.3</v>
+        <v>742.2</v>
       </c>
       <c r="G30">
-        <v>2056.3000000000002</v>
+        <v>5795.3</v>
       </c>
       <c r="H30">
-        <v>10400.1</v>
+        <v>12799.3</v>
       </c>
       <c r="I30">
-        <v>886.7</v>
+        <v>1458</v>
       </c>
       <c r="J30">
-        <v>3143.9</v>
+        <v>3375.1</v>
       </c>
       <c r="K30">
-        <v>67.099999999999994</v>
+        <v>321.7</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1850.3</v>
+        <v>3391.3</v>
       </c>
       <c r="O30">
-        <v>6613.6</v>
+        <v>7994.9</v>
       </c>
       <c r="P30">
-        <v>3527.7</v>
+        <v>3712.5</v>
       </c>
       <c r="Q30">
-        <v>-167.4</v>
+        <v>-166.7</v>
       </c>
       <c r="R30">
-        <v>43065</v>
+        <v>39411</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3786.5</v>
+        <v>4804.3999999999996</v>
       </c>
       <c r="U30">
-        <v>84</v>
+        <v>128.1</v>
       </c>
       <c r="V30">
-        <v>284.7</v>
+        <v>-93.8</v>
       </c>
       <c r="W30">
         <v>-88.3</v>
       </c>
       <c r="X30">
-        <v>-123.4</v>
+        <v>108.3</v>
       </c>
       <c r="Y30">
-        <v>117.9</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="AA30">
-        <v>223.5</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43156</v>
+        <v>39502</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>362.8</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="D31">
-        <v>1994.5</v>
+        <v>2955.3</v>
       </c>
       <c r="E31">
-        <v>603.4</v>
+        <v>1449</v>
       </c>
       <c r="F31">
-        <v>598.79999999999995</v>
+        <v>706.9</v>
       </c>
       <c r="G31">
-        <v>2058.1</v>
+        <v>6335.1</v>
       </c>
       <c r="H31">
-        <v>10463.200000000001</v>
+        <v>13386.7</v>
       </c>
       <c r="I31">
-        <v>869.6</v>
+        <v>1353.7</v>
       </c>
       <c r="J31">
-        <v>3143.8</v>
+        <v>3331.9</v>
       </c>
       <c r="K31">
-        <v>352.3</v>
+        <v>418</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1990.7</v>
+        <v>3752.8</v>
       </c>
       <c r="O31">
-        <v>6653.7</v>
+        <v>8348.2000000000007</v>
       </c>
       <c r="P31">
-        <v>3662.5</v>
+        <v>3808.7</v>
       </c>
       <c r="Q31">
-        <v>48.9</v>
+        <v>-3.4</v>
       </c>
       <c r="R31">
-        <v>43156</v>
+        <v>39502</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3809.5</v>
+        <v>5038.5</v>
       </c>
       <c r="U31">
-        <v>132.9</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="V31">
-        <v>421.6</v>
+        <v>50.3</v>
       </c>
       <c r="W31">
-        <v>-86.1</v>
+        <v>-92.7</v>
       </c>
       <c r="X31">
-        <v>-237.5</v>
+        <v>6.9</v>
       </c>
       <c r="Y31">
-        <v>89.1</v>
+        <v>44</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AA31">
-        <v>362.8</v>
+        <v>309.10000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43247</v>
+        <v>39593</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>69.599999999999994</v>
+        <v>201.3</v>
       </c>
       <c r="D32">
-        <v>1966.2</v>
+        <v>3035.9</v>
       </c>
       <c r="E32">
-        <v>569.4</v>
+        <v>890.6</v>
       </c>
       <c r="F32">
-        <v>583.79999999999995</v>
+        <v>646.20000000000005</v>
       </c>
       <c r="G32">
-        <v>1938.9</v>
+        <v>6082</v>
       </c>
       <c r="H32">
-        <v>10389.5</v>
+        <v>13682.5</v>
       </c>
       <c r="I32">
-        <v>905.3</v>
+        <v>786</v>
       </c>
       <c r="J32">
-        <v>3231.5</v>
+        <v>3386.9</v>
       </c>
       <c r="K32">
-        <v>277.3</v>
+        <v>599.79999999999995</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2336.1999999999998</v>
+        <v>3651.3</v>
       </c>
       <c r="O32">
-        <v>6632.9</v>
+        <v>8345.1</v>
       </c>
       <c r="P32">
-        <v>3815.8</v>
+        <v>4001.6</v>
       </c>
       <c r="Q32">
-        <v>-4.9000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="R32">
-        <v>43247</v>
+        <v>39593</v>
       </c>
       <c r="S32">
-        <v>12400</v>
+        <v>25000</v>
       </c>
       <c r="T32">
-        <v>3756.6</v>
+        <v>5337.4</v>
       </c>
       <c r="U32">
-        <v>128</v>
+        <v>140.9</v>
       </c>
       <c r="V32">
-        <v>111.9</v>
+        <v>306.2</v>
       </c>
       <c r="W32">
-        <v>-84.6</v>
+        <v>-92.7</v>
       </c>
       <c r="X32">
-        <v>-38.9</v>
+        <v>-70</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,125 +3421,125 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>69.599999999999994</v>
+        <v>201.3</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43338</v>
+        <v>39684</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>178.2</v>
+        <v>442.4</v>
       </c>
       <c r="D33">
-        <v>1834.4</v>
+        <v>3056.5</v>
       </c>
       <c r="E33">
-        <v>599.20000000000005</v>
+        <v>961.3</v>
       </c>
       <c r="F33">
-        <v>515.5</v>
+        <v>591.5</v>
       </c>
       <c r="G33">
-        <v>2046.5</v>
+        <v>3657.7</v>
       </c>
       <c r="H33">
-        <v>10485</v>
+        <v>11526.3</v>
       </c>
       <c r="I33">
-        <v>984</v>
+        <v>942.2</v>
       </c>
       <c r="J33">
-        <v>3145.2</v>
+        <v>3004.7</v>
       </c>
       <c r="K33">
-        <v>304.10000000000002</v>
+        <v>25.2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-565.29999999999995</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-41.8</v>
       </c>
       <c r="N33">
-        <v>2433.4</v>
+        <v>2453.3000000000002</v>
       </c>
       <c r="O33">
-        <v>6670</v>
+        <v>6752.4</v>
       </c>
       <c r="P33">
-        <v>3845.3</v>
+        <v>3388.7</v>
       </c>
       <c r="Q33">
-        <v>-53.2</v>
+        <v>155.5</v>
       </c>
       <c r="R33">
-        <v>43338</v>
+        <v>39684</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3815</v>
+        <v>4773.8999999999996</v>
       </c>
       <c r="U33">
-        <v>74.8</v>
+        <v>296.39999999999998</v>
       </c>
       <c r="V33">
-        <v>94.7</v>
+        <v>-437.5</v>
       </c>
       <c r="W33">
-        <v>-83</v>
+        <v>-92.1</v>
       </c>
       <c r="X33">
-        <v>-109.6</v>
+        <v>-1593.5</v>
       </c>
       <c r="Y33">
-        <v>88.5</v>
+        <v>44</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>178.2</v>
+        <v>442.4</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43429</v>
+        <v>39775</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>168.1</v>
       </c>
       <c r="D34">
-        <v>2383.6999999999998</v>
+        <v>3251.7</v>
       </c>
       <c r="E34">
-        <v>958.1</v>
+        <v>972.1</v>
       </c>
       <c r="F34">
-        <v>701.6</v>
+        <v>686.5</v>
       </c>
       <c r="G34">
-        <v>3275.4</v>
+        <v>3840.5</v>
       </c>
       <c r="H34">
-        <v>23006.799999999999</v>
+        <v>11770.7</v>
       </c>
       <c r="I34">
-        <v>1246.0999999999999</v>
+        <v>1019.5</v>
       </c>
       <c r="J34">
-        <v>11405.9</v>
+        <v>2990.9</v>
       </c>
       <c r="K34">
-        <v>0.9</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2234.5</v>
+        <v>2671.9</v>
       </c>
       <c r="O34">
-        <v>15703.5</v>
+        <v>6996.1</v>
       </c>
       <c r="P34">
-        <v>11563.5</v>
+        <v>3669.4</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>-195.1</v>
       </c>
       <c r="R34">
-        <v>43429</v>
+        <v>39775</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>7303.3</v>
+        <v>4774.6000000000004</v>
       </c>
       <c r="U34">
-        <v>442.3</v>
+        <v>132.1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>-178.2</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>-86.1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>189.7</v>
       </c>
       <c r="Y34">
-        <v>139.5</v>
+        <v>61.6</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>131.6</v>
+        <v>168.1</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43520</v>
+        <v>39866</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>242</v>
+        <v>193.2</v>
       </c>
       <c r="D35">
-        <v>2707.1</v>
+        <v>3125</v>
       </c>
       <c r="E35">
-        <v>870.2</v>
+        <v>889</v>
       </c>
       <c r="F35">
-        <v>779.2</v>
+        <v>739.4</v>
       </c>
       <c r="G35">
-        <v>2946.1</v>
+        <v>3458.4</v>
       </c>
       <c r="H35">
-        <v>22726.6</v>
+        <v>11396.2</v>
       </c>
       <c r="I35">
-        <v>1189.2</v>
+        <v>807.8</v>
       </c>
       <c r="J35">
-        <v>10958.8</v>
+        <v>3010.7</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2241.6999999999998</v>
+        <v>2153.8000000000002</v>
       </c>
       <c r="O35">
-        <v>15275.1</v>
+        <v>6507.9</v>
       </c>
       <c r="P35">
-        <v>11127.6</v>
+        <v>3576.5</v>
       </c>
       <c r="Q35">
-        <v>-160.1</v>
+        <v>-43.9</v>
       </c>
       <c r="R35">
-        <v>43520</v>
+        <v>39866</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>7451.5</v>
+        <v>4888.3</v>
       </c>
       <c r="U35">
-        <v>282.2</v>
+        <v>88.2</v>
       </c>
       <c r="V35">
-        <v>494.4</v>
+        <v>239.4</v>
       </c>
       <c r="W35">
-        <v>-86.7</v>
+        <v>-85</v>
       </c>
       <c r="X35">
-        <v>-551.29999999999995</v>
+        <v>-189.6</v>
       </c>
       <c r="Y35">
-        <v>148.9</v>
+        <v>61.7</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>242</v>
+        <v>193.2</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43611</v>
+        <v>39964</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>126.5</v>
+        <v>174.7</v>
       </c>
       <c r="D36">
-        <v>2613.1999999999998</v>
+        <v>2992.9</v>
       </c>
       <c r="E36">
-        <v>818.2</v>
+        <v>755.3</v>
       </c>
       <c r="F36">
-        <v>709.7</v>
+        <v>764.6</v>
       </c>
       <c r="G36">
-        <v>2733.8</v>
+        <v>3336.6</v>
       </c>
       <c r="H36">
-        <v>22213.8</v>
+        <v>11073.3</v>
       </c>
       <c r="I36">
-        <v>1252.0999999999999</v>
+        <v>809.1</v>
       </c>
       <c r="J36">
-        <v>10510.9</v>
+        <v>3455.4</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,164 +3714,164 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2142.6</v>
+        <v>1574.1</v>
       </c>
       <c r="O36">
-        <v>14750.1</v>
+        <v>6325.1</v>
       </c>
       <c r="P36">
-        <v>10677.3</v>
+        <v>3483</v>
       </c>
       <c r="Q36">
-        <v>-45.6</v>
+        <v>185.8</v>
       </c>
       <c r="R36">
-        <v>43611</v>
+        <v>39964</v>
       </c>
       <c r="S36">
-        <v>18000</v>
+        <v>25600</v>
       </c>
       <c r="T36">
-        <v>7463.7</v>
+        <v>4748.2</v>
       </c>
       <c r="U36">
-        <v>236.6</v>
+        <v>243.2</v>
       </c>
       <c r="V36">
-        <v>369.2</v>
+        <v>500.3</v>
       </c>
       <c r="W36">
-        <v>-103.2</v>
+        <v>-85</v>
       </c>
       <c r="X36">
-        <v>-555.6</v>
+        <v>-233.6</v>
       </c>
       <c r="Y36">
-        <v>144.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-8.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>126.5</v>
+        <v>174.7</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43702</v>
+        <v>40055</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>173.8</v>
+        <v>165.9</v>
       </c>
       <c r="D37">
-        <v>2390.6999999999998</v>
+        <v>2886.3</v>
       </c>
       <c r="E37">
-        <v>776.3</v>
+        <v>886.1</v>
       </c>
       <c r="F37">
-        <v>664.5</v>
+        <v>712.4</v>
       </c>
       <c r="G37">
-        <v>2728</v>
+        <v>3562.7</v>
       </c>
       <c r="H37">
-        <v>22354.5</v>
+        <v>11230.4</v>
       </c>
       <c r="I37">
-        <v>1316.9</v>
+        <v>875</v>
       </c>
       <c r="J37">
-        <v>10182.6</v>
+        <v>3470.6</v>
       </c>
       <c r="K37">
-        <v>56</v>
+        <v>2.7</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-205.8</v>
+        <v>-2.7</v>
       </c>
       <c r="N37">
-        <v>2449.9</v>
+        <v>1651</v>
       </c>
       <c r="O37">
-        <v>14837.7</v>
+        <v>6404</v>
       </c>
       <c r="P37">
-        <v>10795</v>
+        <v>3489.1</v>
       </c>
       <c r="Q37">
-        <v>-171.9</v>
+        <v>46.5</v>
       </c>
       <c r="R37">
-        <v>43702</v>
+        <v>40055</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>7516.8</v>
+        <v>4826.3999999999996</v>
       </c>
       <c r="U37">
-        <v>64.7</v>
+        <v>289.7</v>
       </c>
       <c r="V37">
-        <v>207</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W37">
-        <v>-103.3</v>
+        <v>-85</v>
       </c>
       <c r="X37">
-        <v>-270.8</v>
+        <v>-102.8</v>
       </c>
       <c r="Y37">
-        <v>353.2</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>173.8</v>
+        <v>165.9</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43793</v>
+        <v>40146</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>260.5</v>
+        <v>239.7</v>
       </c>
       <c r="D38">
-        <v>2820.8</v>
+        <v>3100.1</v>
       </c>
       <c r="E38">
-        <v>947.6</v>
+        <v>861.6</v>
       </c>
       <c r="F38">
-        <v>797.9</v>
+        <v>847</v>
       </c>
       <c r="G38">
-        <v>3029.6</v>
+        <v>3851.9</v>
       </c>
       <c r="H38">
-        <v>22492.6</v>
+        <v>11566.5</v>
       </c>
       <c r="I38">
-        <v>1441.6</v>
+        <v>956.4</v>
       </c>
       <c r="J38">
-        <v>9160.2999999999993</v>
+        <v>3164.5</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3425.8</v>
+        <v>2007.5</v>
       </c>
       <c r="O38">
-        <v>14802</v>
+        <v>6555.8</v>
       </c>
       <c r="P38">
-        <v>10745.6</v>
+        <v>3484.8</v>
       </c>
       <c r="Q38">
-        <v>127.3</v>
+        <v>200.5</v>
       </c>
       <c r="R38">
-        <v>43793</v>
+        <v>40146</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>7690.6</v>
+        <v>5010.7</v>
       </c>
       <c r="U38">
-        <v>192</v>
+        <v>490.2</v>
       </c>
       <c r="V38">
-        <v>220.5</v>
+        <v>394.6</v>
       </c>
       <c r="W38">
-        <v>-103.4</v>
+        <v>-84.2</v>
       </c>
       <c r="X38">
-        <v>-160.69999999999999</v>
+        <v>-86.1</v>
       </c>
       <c r="Y38">
-        <v>364.1</v>
+        <v>58.6</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>260.5</v>
+        <v>239.7</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43884</v>
+        <v>40237</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>204.4</v>
+        <v>229.6</v>
       </c>
       <c r="D39">
-        <v>2555</v>
+        <v>3030.5</v>
       </c>
       <c r="E39">
-        <v>854.2</v>
+        <v>877.3</v>
       </c>
       <c r="F39">
-        <v>695.3</v>
+        <v>779.5</v>
       </c>
       <c r="G39">
-        <v>2709.4</v>
+        <v>3995.3</v>
       </c>
       <c r="H39">
-        <v>22202.1</v>
+        <v>11746.5</v>
       </c>
       <c r="I39">
-        <v>1357.4</v>
+        <v>883.9</v>
       </c>
       <c r="J39">
-        <v>8962.1</v>
+        <v>3225.2</v>
       </c>
       <c r="K39">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>3127.1</v>
+        <v>1996.7</v>
       </c>
       <c r="O39">
-        <v>14338.2</v>
+        <v>6558</v>
       </c>
       <c r="P39">
-        <v>10283.5</v>
+        <v>3486.8</v>
       </c>
       <c r="Q39">
-        <v>-93</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="R39">
-        <v>43884</v>
+        <v>40237</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>7863.9</v>
+        <v>5188.5</v>
       </c>
       <c r="U39">
-        <v>99</v>
+        <v>785.6</v>
       </c>
       <c r="V39">
-        <v>479</v>
+        <v>449.3</v>
       </c>
       <c r="W39">
-        <v>-103.4</v>
+        <v>-88.7</v>
       </c>
       <c r="X39">
-        <v>-553.1</v>
+        <v>-61</v>
       </c>
       <c r="Y39">
-        <v>349.3</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>204.4</v>
+        <v>229.6</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40328</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>201.4</v>
+        <v>90.6</v>
       </c>
       <c r="D40">
-        <v>3287.9</v>
+        <v>2998</v>
       </c>
       <c r="E40">
-        <v>860.8</v>
+        <v>849.6</v>
       </c>
       <c r="F40">
-        <v>933</v>
+        <v>734.2</v>
       </c>
       <c r="G40">
-        <v>2885.9</v>
+        <v>3960.1</v>
       </c>
       <c r="H40">
-        <v>22304</v>
+        <v>11738</v>
       </c>
       <c r="I40">
-        <v>1525.6</v>
+        <v>919.1</v>
       </c>
       <c r="J40">
-        <v>8767.9</v>
+        <v>3226.4</v>
       </c>
       <c r="K40">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,211 +4046,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3287.4</v>
+        <v>2036.2</v>
       </c>
       <c r="O40">
-        <v>14353.3</v>
+        <v>6809.1</v>
       </c>
       <c r="P40">
-        <v>9997.9</v>
+        <v>3487.2</v>
       </c>
       <c r="Q40">
-        <v>454.3</v>
+        <v>167.6</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40328</v>
       </c>
       <c r="S40">
-        <v>16500</v>
+        <v>24400</v>
       </c>
       <c r="T40">
-        <v>7950.7</v>
+        <v>4928.8999999999996</v>
       </c>
       <c r="U40">
-        <v>553.29999999999995</v>
+        <v>953.2</v>
       </c>
       <c r="V40">
-        <v>936.1</v>
+        <v>366.2</v>
       </c>
       <c r="W40">
-        <v>-103.5</v>
+        <v>-88.8</v>
       </c>
       <c r="X40">
-        <v>-385.8</v>
+        <v>-154.6</v>
       </c>
       <c r="Y40">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>201.4</v>
+        <v>90.6</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44073</v>
+        <v>40419</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>329</v>
+        <v>146.4</v>
       </c>
       <c r="D41">
-        <v>2678.9</v>
+        <v>2804.3</v>
       </c>
       <c r="E41">
-        <v>807.8</v>
+        <v>853.3</v>
       </c>
       <c r="F41">
-        <v>820.6</v>
+        <v>651.29999999999995</v>
       </c>
       <c r="G41">
-        <v>2935.1</v>
+        <v>3985.7</v>
       </c>
       <c r="H41">
-        <v>22377.3</v>
+        <v>11647.7</v>
       </c>
       <c r="I41">
-        <v>1523.3</v>
+        <v>977.3</v>
       </c>
       <c r="J41">
-        <v>8769.5</v>
+        <v>3214.3</v>
       </c>
       <c r="K41">
         <v>0.6</v>
       </c>
       <c r="L41">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-133.4</v>
+        <v>-38.4</v>
       </c>
       <c r="N41">
-        <v>3101.9</v>
+        <v>2078.4</v>
       </c>
       <c r="O41">
-        <v>14178.3</v>
+        <v>6710.8</v>
       </c>
       <c r="P41">
-        <v>9901.6</v>
+        <v>3472.6</v>
       </c>
       <c r="Q41">
-        <v>-115.1</v>
+        <v>-112.3</v>
       </c>
       <c r="R41">
-        <v>44073</v>
+        <v>40419</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>8199</v>
+        <v>4936.8999999999996</v>
       </c>
       <c r="U41">
-        <v>438.2</v>
+        <v>840.9</v>
       </c>
       <c r="V41">
-        <v>284.5</v>
+        <v>108.8</v>
       </c>
       <c r="W41">
-        <v>-103.5</v>
+        <v>-88.5</v>
       </c>
       <c r="X41">
-        <v>-259.60000000000002</v>
+        <v>-216.4</v>
       </c>
       <c r="Y41">
-        <v>362.3</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>329</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44164</v>
+        <v>40510</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>200.9</v>
+      </c>
+      <c r="D42">
+        <v>3147.5</v>
+      </c>
+      <c r="E42">
+        <v>902.5</v>
+      </c>
+      <c r="F42">
+        <v>760</v>
+      </c>
+      <c r="G42">
+        <v>4193.8</v>
+      </c>
+      <c r="H42">
+        <v>11603.5</v>
+      </c>
+      <c r="I42">
+        <v>1122.8</v>
+      </c>
+      <c r="J42">
+        <v>2879.9</v>
+      </c>
+      <c r="K42">
+        <v>0.6</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2280</v>
+      </c>
+      <c r="O42">
+        <v>6626.2</v>
+      </c>
+      <c r="P42">
+        <v>3236.6</v>
+      </c>
+      <c r="Q42">
+        <v>-295.7</v>
+      </c>
+      <c r="R42">
+        <v>40510</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>4977.3</v>
+      </c>
+      <c r="U42">
+        <v>545.20000000000005</v>
+      </c>
+      <c r="V42">
+        <v>210.3</v>
+      </c>
+      <c r="W42">
+        <v>-87.9</v>
+      </c>
+      <c r="X42">
+        <v>-428</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>200.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40601</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>214.8</v>
+      </c>
+      <c r="D43">
+        <v>3141.3</v>
+      </c>
+      <c r="E43">
+        <v>876.7</v>
+      </c>
+      <c r="F43">
+        <v>797.3</v>
+      </c>
+      <c r="G43">
+        <v>4035.5</v>
+      </c>
+      <c r="H43">
+        <v>11472.8</v>
+      </c>
+      <c r="I43">
+        <v>1031.3</v>
+      </c>
+      <c r="J43">
+        <v>2875.1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2303.4</v>
+      </c>
+      <c r="O43">
+        <v>6822.7</v>
+      </c>
+      <c r="P43">
+        <v>3234.5</v>
+      </c>
+      <c r="Q43">
+        <v>337.7</v>
+      </c>
+      <c r="R43">
+        <v>40601</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4650.1000000000004</v>
+      </c>
+      <c r="U43">
+        <v>882.9</v>
+      </c>
+      <c r="V43">
+        <v>620.79999999999995</v>
+      </c>
+      <c r="W43">
+        <v>-100.3</v>
+      </c>
+      <c r="X43">
+        <v>-554.5</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>214.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40692</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>255.5</v>
+      </c>
+      <c r="D44">
+        <v>3210</v>
+      </c>
+      <c r="E44">
+        <v>849.4</v>
+      </c>
+      <c r="F44">
+        <v>705.8</v>
+      </c>
+      <c r="G44">
+        <v>3899.3</v>
+      </c>
+      <c r="H44">
+        <v>11408.7</v>
+      </c>
+      <c r="I44">
+        <v>1083.7</v>
+      </c>
+      <c r="J44">
+        <v>2870.3</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2125.6</v>
+      </c>
+      <c r="O44">
+        <v>6732</v>
+      </c>
+      <c r="P44">
+        <v>3245.6</v>
+      </c>
+      <c r="Q44">
+        <v>89.5</v>
+      </c>
+      <c r="R44">
+        <v>40692</v>
+      </c>
+      <c r="S44">
+        <v>23200</v>
+      </c>
+      <c r="T44">
+        <v>4676.7</v>
+      </c>
+      <c r="U44">
+        <v>972.4</v>
+      </c>
+      <c r="V44">
+        <v>412.4</v>
+      </c>
+      <c r="W44">
+        <v>-97.8</v>
+      </c>
+      <c r="X44">
+        <v>-233.2</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40783</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>93.8</v>
+      </c>
+      <c r="D45">
+        <v>3105.3</v>
+      </c>
+      <c r="E45">
+        <v>922</v>
+      </c>
+      <c r="F45">
+        <v>596</v>
+      </c>
+      <c r="G45">
+        <v>4093.6</v>
+      </c>
+      <c r="H45">
+        <v>11610.7</v>
+      </c>
+      <c r="I45">
+        <v>1165.5</v>
+      </c>
+      <c r="J45">
+        <v>2855.7</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-2.5</v>
+      </c>
+      <c r="N45">
+        <v>2334.1999999999998</v>
+      </c>
+      <c r="O45">
+        <v>6853.7</v>
+      </c>
+      <c r="P45">
+        <v>3295</v>
+      </c>
+      <c r="Q45">
+        <v>122.8</v>
+      </c>
+      <c r="R45">
+        <v>40783</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4757</v>
+      </c>
+      <c r="U45">
+        <v>1095.2</v>
+      </c>
+      <c r="V45">
+        <v>315.10000000000002</v>
+      </c>
+      <c r="W45">
+        <v>-94.3</v>
+      </c>
+      <c r="X45">
+        <v>-41.1</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40874</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>180.2</v>
+      </c>
+      <c r="D46">
+        <v>3431.7</v>
+      </c>
+      <c r="E46">
+        <v>972</v>
+      </c>
+      <c r="F46">
+        <v>754</v>
+      </c>
+      <c r="G46">
+        <v>4007.8</v>
+      </c>
+      <c r="H46">
+        <v>11478.4</v>
+      </c>
+      <c r="I46">
+        <v>1404.9</v>
+      </c>
+      <c r="J46">
+        <v>2845.9</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2343.1</v>
+      </c>
+      <c r="O46">
+        <v>6761.1</v>
+      </c>
+      <c r="P46">
+        <v>3033.6</v>
+      </c>
+      <c r="Q46">
+        <v>-388.7</v>
+      </c>
+      <c r="R46">
+        <v>40874</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>4717.3</v>
+      </c>
+      <c r="U46">
+        <v>706.5</v>
+      </c>
+      <c r="V46">
+        <v>174.8</v>
+      </c>
+      <c r="W46">
+        <v>-95.4</v>
+      </c>
+      <c r="X46">
+        <v>-491.9</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>180.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40965</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="D47">
+        <v>3396</v>
+      </c>
+      <c r="E47">
+        <v>944.7</v>
+      </c>
+      <c r="F47">
+        <v>786.6</v>
+      </c>
+      <c r="G47">
+        <v>3825.4</v>
+      </c>
+      <c r="H47">
+        <v>11747.9</v>
+      </c>
+      <c r="I47">
+        <v>1169.9000000000001</v>
+      </c>
+      <c r="J47">
+        <v>2852.7</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2175.4</v>
+      </c>
+      <c r="O47">
+        <v>6597.9</v>
+      </c>
+      <c r="P47">
+        <v>3020.3</v>
+      </c>
+      <c r="Q47">
+        <v>-102.3</v>
+      </c>
+      <c r="R47">
+        <v>40965</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5150</v>
+      </c>
+      <c r="U47">
+        <v>604.20000000000005</v>
+      </c>
+      <c r="V47">
+        <v>289.5</v>
+      </c>
+      <c r="W47">
+        <v>-99.1</v>
+      </c>
+      <c r="X47">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>280.10000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41056</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-86.2</v>
+      </c>
+      <c r="D48">
+        <v>3434.9</v>
+      </c>
+      <c r="E48">
+        <v>924.8</v>
+      </c>
+      <c r="F48">
+        <v>676.2</v>
+      </c>
+      <c r="G48">
+        <v>3218.8</v>
+      </c>
+      <c r="H48">
+        <v>11441.9</v>
+      </c>
+      <c r="I48">
+        <v>1190.3</v>
+      </c>
+      <c r="J48">
+        <v>2858.6</v>
+      </c>
+      <c r="K48">
+        <v>40</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2225.1999999999998</v>
+      </c>
+      <c r="O48">
+        <v>6905.9</v>
+      </c>
+      <c r="P48">
+        <v>3090.6</v>
+      </c>
+      <c r="Q48">
+        <v>-501.2</v>
+      </c>
+      <c r="R48">
+        <v>41056</v>
+      </c>
+      <c r="S48">
+        <v>26100</v>
+      </c>
+      <c r="T48">
+        <v>4536</v>
+      </c>
+      <c r="U48">
+        <v>103</v>
+      </c>
+      <c r="V48">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="W48">
+        <v>-99.8</v>
+      </c>
+      <c r="X48">
+        <v>-308.3</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>-86.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>250.1</v>
+      </c>
+      <c r="D49">
+        <v>3302.3</v>
+      </c>
+      <c r="E49">
+        <v>963.9</v>
+      </c>
+      <c r="F49">
+        <v>868.6</v>
+      </c>
+      <c r="G49">
+        <v>3475.9</v>
+      </c>
+      <c r="H49">
+        <v>11928.6</v>
+      </c>
+      <c r="I49">
+        <v>1224.7</v>
+      </c>
+      <c r="J49">
+        <v>2859.7</v>
+      </c>
+      <c r="K49">
+        <v>272</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="N49">
+        <v>2594.3000000000002</v>
+      </c>
+      <c r="O49">
+        <v>7248.7</v>
+      </c>
+      <c r="P49">
+        <v>3313.2</v>
+      </c>
+      <c r="Q49">
+        <v>13.5</v>
+      </c>
+      <c r="R49">
+        <v>41147</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4679.8999999999996</v>
+      </c>
+      <c r="U49">
+        <v>116.5</v>
+      </c>
+      <c r="V49">
+        <v>323.89999999999998</v>
+      </c>
+      <c r="W49">
+        <v>-97.9</v>
+      </c>
+      <c r="X49">
+        <v>53.2</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>250.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41238</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>211.6</v>
+      </c>
+      <c r="D50">
+        <v>3727.2</v>
+      </c>
+      <c r="E50">
+        <v>1037.8</v>
+      </c>
+      <c r="F50">
+        <v>861.6</v>
+      </c>
+      <c r="G50">
+        <v>4065</v>
+      </c>
+      <c r="H50">
+        <v>12524.5</v>
+      </c>
+      <c r="I50">
+        <v>1397.1</v>
+      </c>
+      <c r="J50">
+        <v>3609.3</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2388.3000000000002</v>
+      </c>
+      <c r="O50">
+        <v>7792.4</v>
+      </c>
+      <c r="P50">
+        <v>3777.4</v>
+      </c>
+      <c r="Q50">
+        <v>360.3</v>
+      </c>
+      <c r="R50">
+        <v>41238</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>4732.1000000000004</v>
+      </c>
+      <c r="U50">
+        <v>476.8</v>
+      </c>
+      <c r="V50">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="W50">
+        <v>-97.4</v>
+      </c>
+      <c r="X50">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-1.5</v>
+      </c>
+      <c r="AA50">
+        <v>211.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41329</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>120</v>
+      </c>
+      <c r="D51">
+        <v>3833.8</v>
+      </c>
+      <c r="E51">
+        <v>1219.3</v>
+      </c>
+      <c r="F51">
+        <v>887.6</v>
+      </c>
+      <c r="G51">
+        <v>5146</v>
+      </c>
+      <c r="H51">
+        <v>21107.5</v>
+      </c>
+      <c r="I51">
+        <v>1501.7</v>
+      </c>
+      <c r="J51">
+        <v>9845.2999999999993</v>
+      </c>
+      <c r="K51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3422.5</v>
+      </c>
+      <c r="O51">
+        <v>15951.8</v>
+      </c>
+      <c r="P51">
+        <v>10675.7</v>
+      </c>
+      <c r="Q51">
+        <v>247</v>
+      </c>
+      <c r="R51">
+        <v>41329</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>5155.7</v>
+      </c>
+      <c r="U51">
+        <v>723.8</v>
+      </c>
+      <c r="V51">
+        <v>303.10000000000002</v>
+      </c>
+      <c r="W51">
+        <v>-101.3</v>
+      </c>
+      <c r="X51">
+        <v>4798.2</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-0.3</v>
+      </c>
+      <c r="AA51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41420</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>192.2</v>
+      </c>
+      <c r="D52">
+        <v>4563.3</v>
+      </c>
+      <c r="E52">
+        <v>1279.4000000000001</v>
+      </c>
+      <c r="F52">
+        <v>961.1</v>
+      </c>
+      <c r="G52">
+        <v>4379.8</v>
+      </c>
+      <c r="H52">
+        <v>20405.3</v>
+      </c>
+      <c r="I52">
+        <v>1498.1</v>
+      </c>
+      <c r="J52">
+        <v>8886.9</v>
+      </c>
+      <c r="K52">
+        <v>185</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3401.3</v>
+      </c>
+      <c r="O52">
+        <v>15042.3</v>
+      </c>
+      <c r="P52">
+        <v>9694.2999999999993</v>
+      </c>
+      <c r="Q52">
+        <v>-539.9</v>
+      </c>
+      <c r="R52">
+        <v>41420</v>
+      </c>
+      <c r="S52">
+        <v>34840</v>
+      </c>
+      <c r="T52">
+        <v>5363</v>
+      </c>
+      <c r="U52">
+        <v>183.9</v>
+      </c>
+      <c r="V52">
+        <v>630.5</v>
+      </c>
+      <c r="W52">
+        <v>-104.1</v>
+      </c>
+      <c r="X52">
+        <v>-1004.5</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0.3</v>
+      </c>
+      <c r="AA52">
+        <v>192.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41511</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="D53">
+        <v>3715.8</v>
+      </c>
+      <c r="E53">
+        <v>1246.0999999999999</v>
+      </c>
+      <c r="F53">
+        <v>792.1</v>
+      </c>
+      <c r="G53">
+        <v>4457.3999999999996</v>
+      </c>
+      <c r="H53">
+        <v>20468.8</v>
+      </c>
+      <c r="I53">
+        <v>1552</v>
+      </c>
+      <c r="J53">
+        <v>8818.1</v>
+      </c>
+      <c r="K53">
+        <v>282.2</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="N53">
+        <v>3463.3</v>
+      </c>
+      <c r="O53">
+        <v>14984.6</v>
+      </c>
+      <c r="P53">
+        <v>9726.7000000000007</v>
+      </c>
+      <c r="Q53">
+        <v>30.5</v>
+      </c>
+      <c r="R53">
+        <v>41511</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>5484.2</v>
+      </c>
+      <c r="U53">
+        <v>194.2</v>
+      </c>
+      <c r="V53">
+        <v>166.1</v>
+      </c>
+      <c r="W53">
+        <v>-104.8</v>
+      </c>
+      <c r="X53">
+        <v>22.6</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>144.30000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41602</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>248.7</v>
+      </c>
+      <c r="D54">
+        <v>4221.1000000000004</v>
+      </c>
+      <c r="E54">
+        <v>1415.1</v>
+      </c>
+      <c r="F54">
+        <v>959.8</v>
+      </c>
+      <c r="G54">
+        <v>4755.6000000000004</v>
+      </c>
+      <c r="H54">
+        <v>20786.400000000001</v>
+      </c>
+      <c r="I54">
+        <v>1783.7</v>
+      </c>
+      <c r="J54">
+        <v>8771.1</v>
+      </c>
+      <c r="K54">
+        <v>233.7</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3729.5</v>
+      </c>
+      <c r="O54">
+        <v>15190.6</v>
+      </c>
+      <c r="P54">
+        <v>9636.1</v>
+      </c>
+      <c r="Q54">
+        <v>-13.3</v>
+      </c>
+      <c r="R54">
+        <v>41602</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>5595.8</v>
+      </c>
+      <c r="U54">
+        <v>192.7</v>
+      </c>
+      <c r="V54">
+        <v>416.6</v>
+      </c>
+      <c r="W54">
+        <v>-105.6</v>
+      </c>
+      <c r="X54">
+        <v>-263.89999999999998</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>248.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>234.3</v>
+      </c>
+      <c r="D55">
+        <v>3947.3</v>
+      </c>
+      <c r="E55">
+        <v>1275.5999999999999</v>
+      </c>
+      <c r="F55">
+        <v>923.1</v>
+      </c>
+      <c r="G55">
+        <v>4520.6000000000004</v>
+      </c>
+      <c r="H55">
+        <v>20433.3</v>
+      </c>
+      <c r="I55">
+        <v>1486</v>
+      </c>
+      <c r="J55">
+        <v>8760.7000000000007</v>
+      </c>
+      <c r="K55">
+        <v>145.6</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>3240.5</v>
+      </c>
+      <c r="O55">
+        <v>14683</v>
+      </c>
+      <c r="P55">
+        <v>9491.4</v>
+      </c>
+      <c r="Q55">
+        <v>37.4</v>
+      </c>
+      <c r="R55">
+        <v>41693</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>5750.3</v>
+      </c>
+      <c r="U55">
+        <v>239.2</v>
+      </c>
+      <c r="V55">
+        <v>385.3</v>
+      </c>
+      <c r="W55">
+        <v>-105.1</v>
+      </c>
+      <c r="X55">
+        <v>-197.3</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>234.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41784</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-324.2</v>
+      </c>
+      <c r="D56">
+        <v>3959.4</v>
+      </c>
+      <c r="E56">
+        <v>1058.4000000000001</v>
+      </c>
+      <c r="F56">
+        <v>836.9</v>
+      </c>
+      <c r="G56">
+        <v>4230.8</v>
+      </c>
+      <c r="H56">
+        <v>19319.5</v>
+      </c>
+      <c r="I56">
+        <v>1349.3</v>
+      </c>
+      <c r="J56">
+        <v>8720.5</v>
+      </c>
+      <c r="K56">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2642.4</v>
+      </c>
+      <c r="O56">
+        <v>13964.3</v>
+      </c>
+      <c r="P56">
+        <v>8946.4</v>
+      </c>
+      <c r="Q56">
+        <v>-64.2</v>
+      </c>
+      <c r="R56">
+        <v>41784</v>
+      </c>
+      <c r="S56">
+        <v>32800</v>
+      </c>
+      <c r="T56">
+        <v>5355.2</v>
+      </c>
+      <c r="U56">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="V56">
+        <v>600.6</v>
+      </c>
+      <c r="W56">
+        <v>-105.4</v>
+      </c>
+      <c r="X56">
+        <v>-595.5</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>-324.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41875</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>482.3</v>
+      </c>
+      <c r="D57">
+        <v>2763</v>
+      </c>
+      <c r="E57">
+        <v>1080.4000000000001</v>
+      </c>
+      <c r="F57">
+        <v>590.79999999999995</v>
+      </c>
+      <c r="G57">
+        <v>3691.4</v>
+      </c>
+      <c r="H57">
+        <v>19373.099999999999</v>
+      </c>
+      <c r="I57">
+        <v>1441.8</v>
+      </c>
+      <c r="J57">
+        <v>7916.8</v>
+      </c>
+      <c r="K57">
+        <v>565.20000000000005</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-1486.7</v>
+      </c>
+      <c r="N57">
+        <v>2900.1</v>
+      </c>
+      <c r="O57">
+        <v>13595.9</v>
+      </c>
+      <c r="P57">
+        <v>8568.2000000000007</v>
+      </c>
+      <c r="Q57">
+        <v>-6.4</v>
+      </c>
+      <c r="R57">
+        <v>41875</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>5777.2</v>
+      </c>
+      <c r="U57">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="V57">
+        <v>233.6</v>
+      </c>
+      <c r="W57">
+        <v>-105.5</v>
+      </c>
+      <c r="X57">
+        <v>-613.70000000000005</v>
+      </c>
+      <c r="Y57">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="Z57">
+        <v>402.9</v>
+      </c>
+      <c r="AA57">
+        <v>482.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41966</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>3141.2</v>
+      </c>
+      <c r="E58">
+        <v>1201.0999999999999</v>
+      </c>
+      <c r="F58">
+        <v>758.2</v>
+      </c>
+      <c r="G58">
+        <v>4116.1000000000004</v>
+      </c>
+      <c r="H58">
+        <v>19501.7</v>
+      </c>
+      <c r="I58">
+        <v>1643.4</v>
+      </c>
+      <c r="J58">
+        <v>7669</v>
+      </c>
+      <c r="K58">
+        <v>550.70000000000005</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3405.3</v>
+      </c>
+      <c r="O58">
+        <v>13812.6</v>
+      </c>
+      <c r="P58">
+        <v>8478.6</v>
+      </c>
+      <c r="Q58">
+        <v>-11.9</v>
+      </c>
+      <c r="R58">
+        <v>41966</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5689.1</v>
+      </c>
+      <c r="U58">
+        <v>121.9</v>
+      </c>
+      <c r="V58">
+        <v>184.1</v>
+      </c>
+      <c r="W58">
+        <v>-106.2</v>
+      </c>
+      <c r="X58">
+        <v>-96.3</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-11.5</v>
+      </c>
+      <c r="AA58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42057</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-954.1</v>
+      </c>
+      <c r="D59">
+        <v>2907.3</v>
+      </c>
+      <c r="E59">
+        <v>1050.7</v>
+      </c>
+      <c r="F59">
+        <v>720</v>
+      </c>
+      <c r="G59">
+        <v>3923.3</v>
+      </c>
+      <c r="H59">
+        <v>17868.900000000001</v>
+      </c>
+      <c r="I59">
+        <v>1334.4</v>
+      </c>
+      <c r="J59">
+        <v>6919.3</v>
+      </c>
+      <c r="K59">
+        <v>442</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3716.9</v>
+      </c>
+      <c r="O59">
+        <v>13299.8</v>
+      </c>
+      <c r="P59">
+        <v>8370.2000000000007</v>
+      </c>
+      <c r="Q59">
+        <v>9.9</v>
+      </c>
+      <c r="R59">
+        <v>42057</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4569.1000000000004</v>
+      </c>
+      <c r="U59">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="V59">
+        <v>322.8</v>
+      </c>
+      <c r="W59">
+        <v>-106.5</v>
+      </c>
+      <c r="X59">
+        <v>-200.8</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-954.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>209.2</v>
+      </c>
+      <c r="D60">
+        <v>3125.5</v>
+      </c>
+      <c r="E60">
+        <v>739</v>
+      </c>
+      <c r="F60">
+        <v>829.2</v>
+      </c>
+      <c r="G60">
+        <v>3563.3</v>
+      </c>
+      <c r="H60">
+        <v>17437.8</v>
+      </c>
+      <c r="I60">
+        <v>1080</v>
+      </c>
+      <c r="J60">
+        <v>6888.8</v>
+      </c>
+      <c r="K60">
+        <v>7.9</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3310.1</v>
+      </c>
+      <c r="O60">
+        <v>12827.8</v>
+      </c>
+      <c r="P60">
+        <v>7904.5</v>
+      </c>
+      <c r="Q60">
+        <v>54.9</v>
+      </c>
+      <c r="R60">
+        <v>42155</v>
+      </c>
+      <c r="S60">
+        <v>32900</v>
+      </c>
+      <c r="T60">
+        <v>4610</v>
+      </c>
+      <c r="U60">
+        <v>164.7</v>
+      </c>
+      <c r="V60">
+        <v>740.1</v>
+      </c>
+      <c r="W60">
+        <v>-107</v>
+      </c>
+      <c r="X60">
+        <v>-519.4</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>209.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42246</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-1154.0999999999999</v>
+      </c>
+      <c r="D61">
+        <v>2053</v>
+      </c>
+      <c r="E61">
+        <v>837.3</v>
+      </c>
+      <c r="F61">
+        <v>561.29999999999995</v>
+      </c>
+      <c r="G61">
+        <v>3702</v>
+      </c>
+      <c r="H61">
+        <v>15834.3</v>
+      </c>
+      <c r="I61">
+        <v>1157.7</v>
+      </c>
+      <c r="J61">
+        <v>6299.6</v>
+      </c>
+      <c r="K61">
+        <v>13.1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-2.5</v>
+      </c>
+      <c r="N61">
+        <v>3846.9</v>
+      </c>
+      <c r="O61">
+        <v>12358.6</v>
+      </c>
+      <c r="P61">
+        <v>7870</v>
+      </c>
+      <c r="Q61">
+        <v>-50.4</v>
+      </c>
+      <c r="R61">
+        <v>42246</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3475.7</v>
+      </c>
+      <c r="U61">
+        <v>114.3</v>
+      </c>
+      <c r="V61">
+        <v>93.1</v>
+      </c>
+      <c r="W61">
+        <v>-107.1</v>
+      </c>
+      <c r="X61">
+        <v>-12.2</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>-1154.0999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42337</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>154.9</v>
+      </c>
+      <c r="D62">
+        <v>2358.8000000000002</v>
+      </c>
+      <c r="E62">
+        <v>894.4</v>
+      </c>
+      <c r="F62">
+        <v>668</v>
+      </c>
+      <c r="G62">
+        <v>3912.5</v>
+      </c>
+      <c r="H62">
+        <v>15994.6</v>
+      </c>
+      <c r="I62">
+        <v>1195.5</v>
+      </c>
+      <c r="J62">
+        <v>6400.4</v>
+      </c>
+      <c r="K62">
+        <v>195</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3953.6</v>
+      </c>
+      <c r="O62">
+        <v>12446.2</v>
+      </c>
+      <c r="P62">
+        <v>7905.2</v>
+      </c>
+      <c r="Q62">
+        <v>-11.7</v>
+      </c>
+      <c r="R62">
+        <v>42337</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>3548.4</v>
+      </c>
+      <c r="U62">
+        <v>95.9</v>
+      </c>
+      <c r="V62">
+        <v>259</v>
+      </c>
+      <c r="W62">
+        <v>-107.9</v>
+      </c>
+      <c r="X62">
+        <v>-154.6</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>154.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42428</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>204.6</v>
+      </c>
+      <c r="D63">
+        <v>2199.3000000000002</v>
+      </c>
+      <c r="E63">
+        <v>849.6</v>
+      </c>
+      <c r="F63">
+        <v>619.79999999999995</v>
+      </c>
+      <c r="G63">
+        <v>3527.5</v>
+      </c>
+      <c r="H63">
+        <v>13187.2</v>
+      </c>
+      <c r="I63">
+        <v>1007.8</v>
+      </c>
+      <c r="J63">
+        <v>4902.7</v>
+      </c>
+      <c r="K63">
+        <v>36.6</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2615.6</v>
+      </c>
+      <c r="O63">
+        <v>9424.1</v>
+      </c>
+      <c r="P63">
+        <v>5499.7</v>
+      </c>
+      <c r="Q63">
+        <v>394</v>
+      </c>
+      <c r="R63">
+        <v>42428</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3763.1</v>
+      </c>
+      <c r="U63">
+        <v>502.6</v>
+      </c>
+      <c r="V63">
+        <v>386.5</v>
+      </c>
+      <c r="W63">
+        <v>-108.5</v>
+      </c>
+      <c r="X63">
+        <v>-2506.1999999999998</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>204.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42519</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>117.6</v>
+      </c>
+      <c r="D64">
+        <v>2053</v>
+      </c>
+      <c r="E64">
+        <v>650.1</v>
+      </c>
+      <c r="F64">
+        <v>629.1</v>
+      </c>
+      <c r="G64">
+        <v>3576.7</v>
+      </c>
+      <c r="H64">
+        <v>13390.6</v>
+      </c>
+      <c r="I64">
+        <v>706.7</v>
+      </c>
+      <c r="J64">
+        <v>4881.3999999999996</v>
+      </c>
+      <c r="K64">
+        <v>13.9</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2532.4</v>
+      </c>
+      <c r="O64">
+        <v>9595.7999999999993</v>
+      </c>
+      <c r="P64">
+        <v>5454.7</v>
+      </c>
+      <c r="Q64">
+        <v>332.1</v>
+      </c>
+      <c r="R64">
+        <v>42519</v>
+      </c>
+      <c r="S64">
+        <v>20900</v>
+      </c>
+      <c r="T64">
+        <v>3794.8</v>
+      </c>
+      <c r="U64">
+        <v>798.1</v>
+      </c>
+      <c r="V64">
+        <v>520.6</v>
+      </c>
+      <c r="W64">
+        <v>-109</v>
+      </c>
+      <c r="X64">
+        <v>-60.2</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>117.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42610</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>186.2</v>
+      </c>
+      <c r="D65">
+        <v>1895.6</v>
+      </c>
+      <c r="E65">
+        <v>847</v>
+      </c>
+      <c r="F65">
+        <v>549.79999999999995</v>
+      </c>
+      <c r="G65">
+        <v>3407.1</v>
+      </c>
+      <c r="H65">
+        <v>12835.9</v>
+      </c>
+      <c r="I65">
+        <v>992.9</v>
+      </c>
+      <c r="J65">
+        <v>4451.3999999999996</v>
+      </c>
+      <c r="K65">
+        <v>35.1</v>
+      </c>
+      <c r="L65">
+        <v>-3.3</v>
+      </c>
+      <c r="M65">
+        <v>-553.9</v>
+      </c>
+      <c r="N65">
+        <v>2364.8000000000002</v>
+      </c>
+      <c r="O65">
+        <v>9003.1</v>
+      </c>
+      <c r="P65">
+        <v>4974.1000000000004</v>
+      </c>
+      <c r="Q65">
+        <v>-75.900000000000006</v>
+      </c>
+      <c r="R65">
+        <v>42610</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3832.8</v>
+      </c>
+      <c r="U65">
+        <v>794.6</v>
+      </c>
+      <c r="V65">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="W65">
+        <v>-109.5</v>
+      </c>
+      <c r="X65">
+        <v>-737.7</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>186.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42701</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>122.1</v>
+      </c>
+      <c r="D66">
+        <v>2088.4</v>
+      </c>
+      <c r="E66">
+        <v>699.5</v>
+      </c>
+      <c r="F66">
+        <v>649.29999999999995</v>
+      </c>
+      <c r="G66">
+        <v>3345</v>
+      </c>
+      <c r="H66">
+        <v>11425</v>
+      </c>
+      <c r="I66">
+        <v>784.1</v>
+      </c>
+      <c r="J66">
+        <v>3214.3</v>
+      </c>
+      <c r="K66">
+        <v>6.7</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1745.4</v>
+      </c>
+      <c r="O66">
+        <v>6898.2</v>
+      </c>
+      <c r="P66">
+        <v>3452</v>
+      </c>
+      <c r="Q66">
+        <v>720.3</v>
+      </c>
+      <c r="R66">
+        <v>42701</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>4526.8</v>
+      </c>
+      <c r="U66">
+        <v>1442.5</v>
+      </c>
+      <c r="V66">
+        <v>216.3</v>
+      </c>
+      <c r="W66">
+        <v>-109.9</v>
+      </c>
+      <c r="X66">
+        <v>656.8</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>122.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42792</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>179.7</v>
+      </c>
+      <c r="D67">
+        <v>1981.2</v>
+      </c>
+      <c r="E67">
+        <v>601.4</v>
+      </c>
+      <c r="F67">
+        <v>621</v>
+      </c>
+      <c r="G67">
+        <v>2539.1</v>
+      </c>
+      <c r="H67">
+        <v>10499</v>
+      </c>
+      <c r="I67">
+        <v>690.1</v>
+      </c>
+      <c r="J67">
+        <v>2841.7</v>
+      </c>
+      <c r="K67">
+        <v>3.7</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1564.9</v>
+      </c>
+      <c r="O67">
+        <v>6194.8</v>
+      </c>
+      <c r="P67">
+        <v>2974.2</v>
+      </c>
+      <c r="Q67">
+        <v>-758.9</v>
+      </c>
+      <c r="R67">
+        <v>42792</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4304.2</v>
+      </c>
+      <c r="U67">
+        <v>683.6</v>
+      </c>
+      <c r="V67">
+        <v>304.3</v>
+      </c>
+      <c r="W67">
+        <v>-109.5</v>
+      </c>
+      <c r="X67">
+        <v>-1026.0999999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42883</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="D68">
+        <v>1861.7</v>
+      </c>
+      <c r="E68">
+        <v>563.4</v>
+      </c>
+      <c r="F68">
+        <v>546.20000000000005</v>
+      </c>
+      <c r="G68">
+        <v>2013.2</v>
+      </c>
+      <c r="H68">
+        <v>10096.299999999999</v>
+      </c>
+      <c r="I68">
+        <v>773.1</v>
+      </c>
+      <c r="J68">
+        <v>2769.2</v>
+      </c>
+      <c r="K68">
+        <v>28.2</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1720.5</v>
+      </c>
+      <c r="O68">
+        <v>6018.5</v>
+      </c>
+      <c r="P68">
+        <v>2996.4</v>
+      </c>
+      <c r="Q68">
+        <v>-432.2</v>
+      </c>
+      <c r="R68">
+        <v>42883</v>
+      </c>
+      <c r="S68">
+        <v>12600</v>
+      </c>
+      <c r="T68">
+        <v>4077.8</v>
+      </c>
+      <c r="U68">
+        <v>251.4</v>
+      </c>
+      <c r="V68">
+        <v>329</v>
+      </c>
+      <c r="W68">
+        <v>-86.1</v>
+      </c>
+      <c r="X68">
+        <v>-462.1</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>151.30000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42974</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>152.5</v>
+      </c>
+      <c r="D69">
+        <v>1804.2</v>
+      </c>
+      <c r="E69">
+        <v>577.1</v>
+      </c>
+      <c r="F69">
+        <v>519</v>
+      </c>
+      <c r="G69">
+        <v>2125</v>
+      </c>
+      <c r="H69">
+        <v>10225.6</v>
+      </c>
+      <c r="I69">
+        <v>845.7</v>
+      </c>
+      <c r="J69">
+        <v>2647.2</v>
+      </c>
+      <c r="K69">
+        <v>323.5</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2053.6</v>
+      </c>
+      <c r="O69">
+        <v>6343</v>
+      </c>
+      <c r="P69">
+        <v>3289.2</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>42974</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3882.6</v>
+      </c>
+      <c r="U69">
+        <v>251.4</v>
+      </c>
+      <c r="V69">
+        <v>136</v>
+      </c>
+      <c r="W69">
+        <v>-83.3</v>
+      </c>
+      <c r="X69">
+        <v>-107.1</v>
+      </c>
+      <c r="Y69">
+        <v>119.8</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43065</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>223.5</v>
+      </c>
+      <c r="D70">
+        <v>2173.4</v>
+      </c>
+      <c r="E70">
+        <v>683.8</v>
+      </c>
+      <c r="F70">
+        <v>658.3</v>
+      </c>
+      <c r="G70">
+        <v>2056.3000000000002</v>
+      </c>
+      <c r="H70">
+        <v>10400.1</v>
+      </c>
+      <c r="I70">
+        <v>886.7</v>
+      </c>
+      <c r="J70">
+        <v>3143.9</v>
+      </c>
+      <c r="K70">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1850.3</v>
+      </c>
+      <c r="O70">
+        <v>6613.6</v>
+      </c>
+      <c r="P70">
+        <v>3527.7</v>
+      </c>
+      <c r="Q70">
+        <v>-167.4</v>
+      </c>
+      <c r="R70">
+        <v>43065</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>3786.5</v>
+      </c>
+      <c r="U70">
+        <v>84</v>
+      </c>
+      <c r="V70">
+        <v>284.7</v>
+      </c>
+      <c r="W70">
+        <v>-88.3</v>
+      </c>
+      <c r="X70">
+        <v>-123.4</v>
+      </c>
+      <c r="Y70">
+        <v>117.9</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>362.8</v>
+      </c>
+      <c r="D71">
+        <v>1994.5</v>
+      </c>
+      <c r="E71">
+        <v>603.4</v>
+      </c>
+      <c r="F71">
+        <v>598.79999999999995</v>
+      </c>
+      <c r="G71">
+        <v>2058.1</v>
+      </c>
+      <c r="H71">
+        <v>10463.200000000001</v>
+      </c>
+      <c r="I71">
+        <v>869.6</v>
+      </c>
+      <c r="J71">
+        <v>3143.8</v>
+      </c>
+      <c r="K71">
+        <v>352.3</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1990.7</v>
+      </c>
+      <c r="O71">
+        <v>6653.7</v>
+      </c>
+      <c r="P71">
+        <v>3662.5</v>
+      </c>
+      <c r="Q71">
+        <v>48.9</v>
+      </c>
+      <c r="R71">
+        <v>43156</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3809.5</v>
+      </c>
+      <c r="U71">
+        <v>132.9</v>
+      </c>
+      <c r="V71">
+        <v>421.6</v>
+      </c>
+      <c r="W71">
+        <v>-86.1</v>
+      </c>
+      <c r="X71">
+        <v>-237.5</v>
+      </c>
+      <c r="Y71">
+        <v>89.1</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>362.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D72">
+        <v>1966.2</v>
+      </c>
+      <c r="E72">
+        <v>569.4</v>
+      </c>
+      <c r="F72">
+        <v>583.79999999999995</v>
+      </c>
+      <c r="G72">
+        <v>1938.9</v>
+      </c>
+      <c r="H72">
+        <v>10389.5</v>
+      </c>
+      <c r="I72">
+        <v>905.3</v>
+      </c>
+      <c r="J72">
+        <v>3231.5</v>
+      </c>
+      <c r="K72">
+        <v>277.3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2336.1999999999998</v>
+      </c>
+      <c r="O72">
+        <v>6632.9</v>
+      </c>
+      <c r="P72">
+        <v>3815.8</v>
+      </c>
+      <c r="Q72">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="R72">
+        <v>43247</v>
+      </c>
+      <c r="S72">
+        <v>12400</v>
+      </c>
+      <c r="T72">
+        <v>3756.6</v>
+      </c>
+      <c r="U72">
+        <v>128</v>
+      </c>
+      <c r="V72">
+        <v>111.9</v>
+      </c>
+      <c r="W72">
+        <v>-84.6</v>
+      </c>
+      <c r="X72">
+        <v>-38.9</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43338</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>178.2</v>
+      </c>
+      <c r="D73">
+        <v>1834.4</v>
+      </c>
+      <c r="E73">
+        <v>599.20000000000005</v>
+      </c>
+      <c r="F73">
+        <v>515.5</v>
+      </c>
+      <c r="G73">
+        <v>2046.5</v>
+      </c>
+      <c r="H73">
+        <v>10485</v>
+      </c>
+      <c r="I73">
+        <v>984</v>
+      </c>
+      <c r="J73">
+        <v>3145.2</v>
+      </c>
+      <c r="K73">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2433.4</v>
+      </c>
+      <c r="O73">
+        <v>6670</v>
+      </c>
+      <c r="P73">
+        <v>3845.3</v>
+      </c>
+      <c r="Q73">
+        <v>-53.2</v>
+      </c>
+      <c r="R73">
+        <v>43338</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3815</v>
+      </c>
+      <c r="U73">
+        <v>74.8</v>
+      </c>
+      <c r="V73">
+        <v>94.7</v>
+      </c>
+      <c r="W73">
+        <v>-83</v>
+      </c>
+      <c r="X73">
+        <v>-109.6</v>
+      </c>
+      <c r="Y73">
+        <v>88.5</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>178.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43429</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>2383.6999999999998</v>
+      </c>
+      <c r="E74">
+        <v>958.1</v>
+      </c>
+      <c r="F74">
+        <v>701.6</v>
+      </c>
+      <c r="G74">
+        <v>3275.4</v>
+      </c>
+      <c r="H74">
+        <v>23006.799999999999</v>
+      </c>
+      <c r="I74">
+        <v>1246.0999999999999</v>
+      </c>
+      <c r="J74">
+        <v>11405.9</v>
+      </c>
+      <c r="K74">
+        <v>0.9</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2234.5</v>
+      </c>
+      <c r="O74">
+        <v>15703.5</v>
+      </c>
+      <c r="P74">
+        <v>11563.5</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>43429</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>7303.3</v>
+      </c>
+      <c r="U74">
+        <v>442.3</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>139.5</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>242</v>
+      </c>
+      <c r="D75">
+        <v>2707.1</v>
+      </c>
+      <c r="E75">
+        <v>870.2</v>
+      </c>
+      <c r="F75">
+        <v>779.2</v>
+      </c>
+      <c r="G75">
+        <v>2946.1</v>
+      </c>
+      <c r="H75">
+        <v>22726.6</v>
+      </c>
+      <c r="I75">
+        <v>1189.2</v>
+      </c>
+      <c r="J75">
+        <v>10958.8</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2241.6999999999998</v>
+      </c>
+      <c r="O75">
+        <v>15275.1</v>
+      </c>
+      <c r="P75">
+        <v>11127.6</v>
+      </c>
+      <c r="Q75">
+        <v>-160.1</v>
+      </c>
+      <c r="R75">
+        <v>43520</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>7451.5</v>
+      </c>
+      <c r="U75">
+        <v>282.2</v>
+      </c>
+      <c r="V75">
+        <v>494.4</v>
+      </c>
+      <c r="W75">
+        <v>-86.7</v>
+      </c>
+      <c r="X75">
+        <v>-551.29999999999995</v>
+      </c>
+      <c r="Y75">
+        <v>148.9</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>126.5</v>
+      </c>
+      <c r="D76">
+        <v>2613.1999999999998</v>
+      </c>
+      <c r="E76">
+        <v>818.2</v>
+      </c>
+      <c r="F76">
+        <v>709.7</v>
+      </c>
+      <c r="G76">
+        <v>2733.8</v>
+      </c>
+      <c r="H76">
+        <v>22213.8</v>
+      </c>
+      <c r="I76">
+        <v>1252.0999999999999</v>
+      </c>
+      <c r="J76">
+        <v>10510.9</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2142.6</v>
+      </c>
+      <c r="O76">
+        <v>14750.1</v>
+      </c>
+      <c r="P76">
+        <v>10677.3</v>
+      </c>
+      <c r="Q76">
+        <v>-45.6</v>
+      </c>
+      <c r="R76">
+        <v>43611</v>
+      </c>
+      <c r="S76">
+        <v>18000</v>
+      </c>
+      <c r="T76">
+        <v>7463.7</v>
+      </c>
+      <c r="U76">
+        <v>236.6</v>
+      </c>
+      <c r="V76">
+        <v>369.2</v>
+      </c>
+      <c r="W76">
+        <v>-103.2</v>
+      </c>
+      <c r="X76">
+        <v>-555.6</v>
+      </c>
+      <c r="Y76">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AA76">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43702</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>173.8</v>
+      </c>
+      <c r="D77">
+        <v>2390.6999999999998</v>
+      </c>
+      <c r="E77">
+        <v>776.3</v>
+      </c>
+      <c r="F77">
+        <v>664.5</v>
+      </c>
+      <c r="G77">
+        <v>2728</v>
+      </c>
+      <c r="H77">
+        <v>22354.5</v>
+      </c>
+      <c r="I77">
+        <v>1316.9</v>
+      </c>
+      <c r="J77">
+        <v>10182.6</v>
+      </c>
+      <c r="K77">
+        <v>56</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-205.8</v>
+      </c>
+      <c r="N77">
+        <v>2449.9</v>
+      </c>
+      <c r="O77">
+        <v>14837.7</v>
+      </c>
+      <c r="P77">
+        <v>10795</v>
+      </c>
+      <c r="Q77">
+        <v>-171.9</v>
+      </c>
+      <c r="R77">
+        <v>43702</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>7516.8</v>
+      </c>
+      <c r="U77">
+        <v>64.7</v>
+      </c>
+      <c r="V77">
+        <v>207</v>
+      </c>
+      <c r="W77">
+        <v>-103.3</v>
+      </c>
+      <c r="X77">
+        <v>-270.8</v>
+      </c>
+      <c r="Y77">
+        <v>353.2</v>
+      </c>
+      <c r="Z77">
+        <v>1.3</v>
+      </c>
+      <c r="AA77">
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>260.5</v>
+      </c>
+      <c r="D78">
+        <v>2820.8</v>
+      </c>
+      <c r="E78">
+        <v>947.6</v>
+      </c>
+      <c r="F78">
+        <v>797.9</v>
+      </c>
+      <c r="G78">
+        <v>3029.6</v>
+      </c>
+      <c r="H78">
+        <v>22492.6</v>
+      </c>
+      <c r="I78">
+        <v>1441.6</v>
+      </c>
+      <c r="J78">
+        <v>9160.2999999999993</v>
+      </c>
+      <c r="K78">
+        <v>0.5</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3425.8</v>
+      </c>
+      <c r="O78">
+        <v>14802</v>
+      </c>
+      <c r="P78">
+        <v>10745.6</v>
+      </c>
+      <c r="Q78">
+        <v>127.3</v>
+      </c>
+      <c r="R78">
+        <v>43793</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>7690.6</v>
+      </c>
+      <c r="U78">
+        <v>192</v>
+      </c>
+      <c r="V78">
+        <v>220.5</v>
+      </c>
+      <c r="W78">
+        <v>-103.4</v>
+      </c>
+      <c r="X78">
+        <v>-160.69999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>364.1</v>
+      </c>
+      <c r="Z78">
+        <v>0.8</v>
+      </c>
+      <c r="AA78">
+        <v>260.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>204.4</v>
+      </c>
+      <c r="D79">
+        <v>2555</v>
+      </c>
+      <c r="E79">
+        <v>854.2</v>
+      </c>
+      <c r="F79">
+        <v>695.3</v>
+      </c>
+      <c r="G79">
+        <v>2709.4</v>
+      </c>
+      <c r="H79">
+        <v>22202.1</v>
+      </c>
+      <c r="I79">
+        <v>1357.4</v>
+      </c>
+      <c r="J79">
+        <v>8962.1</v>
+      </c>
+      <c r="K79">
+        <v>0.8</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>3127.1</v>
+      </c>
+      <c r="O79">
+        <v>14338.2</v>
+      </c>
+      <c r="P79">
+        <v>10283.5</v>
+      </c>
+      <c r="Q79">
+        <v>-93</v>
+      </c>
+      <c r="R79">
+        <v>43884</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>7863.9</v>
+      </c>
+      <c r="U79">
+        <v>99</v>
+      </c>
+      <c r="V79">
+        <v>479</v>
+      </c>
+      <c r="W79">
+        <v>-103.4</v>
+      </c>
+      <c r="X79">
+        <v>-553.1</v>
+      </c>
+      <c r="Y79">
+        <v>349.3</v>
+      </c>
+      <c r="Z79">
+        <v>3.1</v>
+      </c>
+      <c r="AA79">
+        <v>204.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>201.4</v>
+      </c>
+      <c r="D80">
+        <v>3287.9</v>
+      </c>
+      <c r="E80">
+        <v>860.8</v>
+      </c>
+      <c r="F80">
+        <v>933</v>
+      </c>
+      <c r="G80">
+        <v>2885.9</v>
+      </c>
+      <c r="H80">
+        <v>22304</v>
+      </c>
+      <c r="I80">
+        <v>1525.6</v>
+      </c>
+      <c r="J80">
+        <v>8767.9</v>
+      </c>
+      <c r="K80">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3287.4</v>
+      </c>
+      <c r="O80">
+        <v>14353.3</v>
+      </c>
+      <c r="P80">
+        <v>9997.9</v>
+      </c>
+      <c r="Q80">
+        <v>454.3</v>
+      </c>
+      <c r="R80">
+        <v>43982</v>
+      </c>
+      <c r="S80">
+        <v>16500</v>
+      </c>
+      <c r="T80">
+        <v>7950.7</v>
+      </c>
+      <c r="U80">
+        <v>553.29999999999995</v>
+      </c>
+      <c r="V80">
+        <v>936.1</v>
+      </c>
+      <c r="W80">
+        <v>-103.5</v>
+      </c>
+      <c r="X80">
+        <v>-385.8</v>
+      </c>
+      <c r="Y80">
+        <v>339</v>
+      </c>
+      <c r="Z80">
+        <v>1.8</v>
+      </c>
+      <c r="AA80">
+        <v>201.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>329</v>
+      </c>
+      <c r="D81">
+        <v>2678.9</v>
+      </c>
+      <c r="E81">
+        <v>807.8</v>
+      </c>
+      <c r="F81">
+        <v>820.6</v>
+      </c>
+      <c r="G81">
+        <v>2935.1</v>
+      </c>
+      <c r="H81">
+        <v>22377.3</v>
+      </c>
+      <c r="I81">
+        <v>1523.3</v>
+      </c>
+      <c r="J81">
+        <v>8769.5</v>
+      </c>
+      <c r="K81">
+        <v>0.6</v>
+      </c>
+      <c r="L81">
+        <v>-0.5</v>
+      </c>
+      <c r="M81">
+        <v>-133.4</v>
+      </c>
+      <c r="N81">
+        <v>3101.9</v>
+      </c>
+      <c r="O81">
+        <v>14178.3</v>
+      </c>
+      <c r="P81">
+        <v>9901.6</v>
+      </c>
+      <c r="Q81">
+        <v>-115.1</v>
+      </c>
+      <c r="R81">
+        <v>44073</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>8199</v>
+      </c>
+      <c r="U81">
+        <v>438.2</v>
+      </c>
+      <c r="V81">
+        <v>284.5</v>
+      </c>
+      <c r="W81">
+        <v>-103.5</v>
+      </c>
+      <c r="X81">
+        <v>-259.60000000000002</v>
+      </c>
+      <c r="Y81">
+        <v>362.3</v>
+      </c>
+      <c r="Z81">
+        <v>1.9</v>
+      </c>
+      <c r="AA81">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>378.9</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2995.2</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>948.5</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>898.4</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2797.7</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>22276.7</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1598.1</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>8155.8</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>368.6</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3351.4</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>13807.2</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>9539.7999999999993</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-370.2</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44164</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>8469.5</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>68</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>256.89999999999998</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-103.8</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-500.4</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>349.3</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>378.9</v>
       </c>
     </row>
